--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBFC02-E7AF-4131-A18A-E4EF1619A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15240" windowHeight="8070"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.10.ファイル管理" sheetId="17" r:id="rId1"/>
@@ -16,7 +17,18 @@
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -125,31 +137,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務アプリケーションにて利用するファイルを登録、取得、削除など管理機能を行う。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -449,6 +436,34 @@
     <t>に保持</t>
     <rPh sb="1" eb="3">
       <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務アプリケーションにて利用するファイルの管理機能(登録、取得、削除)について解説する。</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイセツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -456,11 +471,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,6 +913,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -954,68 +1023,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1029,12 +1044,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1076,7 +1094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1109,9 +1127,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1144,6 +1179,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1319,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1327,144 +1379,144 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.25" customHeight="1">
+    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
+      <c r="R1" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
-    </row>
-    <row r="2" spans="1:35" ht="14.25" customHeight="1">
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
+    </row>
+    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="94"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
-    </row>
-    <row r="3" spans="1:35" ht="14.25" customHeight="1">
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
+    </row>
+    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="97"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70"/>
-    </row>
-    <row r="4" spans="1:35" ht="11.25" customHeight="1"/>
-    <row r="5" spans="1:35" ht="11.25" customHeight="1">
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
+    </row>
+    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1472,8 +1524,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="11.25" customHeight="1"/>
-    <row r="7" spans="1:35" ht="11.25" customHeight="1">
+    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="14" t="str">
         <f>$B$5&amp;"10."</f>
         <v>7.10.</v>
@@ -1482,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1">
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1515,7 +1567,7 @@
       <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
     </row>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1">
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1557,13 +1609,13 @@
       <c r="AH9" s="21"/>
       <c r="AI9" s="21"/>
     </row>
-    <row r="10" spans="1:35" ht="11.25">
+    <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1596,7 +1648,7 @@
       <c r="AH10" s="21"/>
       <c r="AI10" s="21"/>
     </row>
-    <row r="11" spans="1:35" ht="11.25">
+    <row r="11" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1633,13 +1685,13 @@
       <c r="AH11" s="21"/>
       <c r="AI11" s="21"/>
     </row>
-    <row r="12" spans="1:35" ht="11.25" customHeight="1">
+    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1672,13 +1724,13 @@
       <c r="AH12" s="21"/>
       <c r="AI12" s="21"/>
     </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1">
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -1687,7 +1739,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -1715,28 +1767,28 @@
       <c r="AH13" s="25"/>
       <c r="AI13" s="21"/>
     </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1">
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="E14" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -1758,18 +1810,18 @@
       <c r="AH14" s="43"/>
       <c r="AI14" s="21"/>
     </row>
-    <row r="15" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="15" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1795,28 +1847,28 @@
       <c r="AH15" s="46"/>
       <c r="AI15" s="21"/>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="E16" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="54"/>
       <c r="P16" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -1838,20 +1890,20 @@
       <c r="AH16" s="48"/>
       <c r="AI16" s="21"/>
     </row>
-    <row r="17" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="17" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
@@ -1877,18 +1929,18 @@
       <c r="AH17" s="50"/>
       <c r="AI17" s="21"/>
     </row>
-    <row r="18" spans="1:35" ht="11.25" customHeight="1">
+    <row r="18" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -1914,20 +1966,20 @@
       <c r="AH18" s="50"/>
       <c r="AI18" s="21"/>
     </row>
-    <row r="19" spans="1:35" ht="11.25" customHeight="1">
+    <row r="19" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="E19" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -1953,18 +2005,18 @@
       <c r="AH19" s="50"/>
       <c r="AI19" s="21"/>
     </row>
-    <row r="20" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="20" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -1990,18 +2042,18 @@
       <c r="AH20" s="50"/>
       <c r="AI20" s="21"/>
     </row>
-    <row r="21" spans="1:35" ht="11.25" customHeight="1">
+    <row r="21" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2027,20 +2079,20 @@
       <c r="AH21" s="50"/>
       <c r="AI21" s="21"/>
     </row>
-    <row r="22" spans="1:35" ht="11.25" customHeight="1">
+    <row r="22" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
+      <c r="E22" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2066,18 +2118,18 @@
       <c r="AH22" s="50"/>
       <c r="AI22" s="21"/>
     </row>
-    <row r="23" spans="1:35" ht="11.25" customHeight="1">
+    <row r="23" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -2103,7 +2155,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="21"/>
     </row>
-    <row r="24" spans="1:35" ht="11.25" customHeight="1">
+    <row r="24" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2140,7 +2192,7 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="21"/>
     </row>
-    <row r="25" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="25" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2177,7 +2229,7 @@
       <c r="AH25" s="21"/>
       <c r="AI25" s="21"/>
     </row>
-    <row r="26" spans="1:35" ht="11.25" customHeight="1">
+    <row r="26" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -2219,16 +2271,16 @@
       <c r="AH26" s="21"/>
       <c r="AI26" s="21"/>
     </row>
-    <row r="27" spans="1:35" ht="11.25" customHeight="1">
+    <row r="27" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>30</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2260,16 +2312,16 @@
       <c r="AH27" s="21"/>
       <c r="AI27" s="21"/>
     </row>
-    <row r="28" spans="1:35" ht="11.25" customHeight="1">
+    <row r="28" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="28"/>
       <c r="E28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>32</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -2301,14 +2353,14 @@
       <c r="AH28" s="21"/>
       <c r="AI28" s="21"/>
     </row>
-    <row r="29" spans="1:35" ht="11.25" customHeight="1">
+    <row r="29" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -2340,14 +2392,14 @@
       <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
     </row>
-    <row r="30" spans="1:35" ht="11.25" customHeight="1">
+    <row r="30" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -2379,14 +2431,14 @@
       <c r="AH30" s="21"/>
       <c r="AI30" s="21"/>
     </row>
-    <row r="31" spans="1:35" ht="11.25" customHeight="1">
+    <row r="31" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2418,14 +2470,14 @@
       <c r="AH31" s="21"/>
       <c r="AI31" s="21"/>
     </row>
-    <row r="32" spans="1:35" ht="11.25" customHeight="1">
+    <row r="32" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -2457,7 +2509,7 @@
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
     </row>
-    <row r="33" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="33" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2494,14 +2546,14 @@
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
     </row>
-    <row r="34" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="34" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="17"/>
       <c r="E34" s="21"/>
       <c r="F34" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -2533,14 +2585,14 @@
       <c r="AH34" s="17"/>
       <c r="AI34" s="21"/>
     </row>
-    <row r="35" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="35" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="17"/>
       <c r="E35" s="21"/>
       <c r="F35" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -2572,27 +2624,27 @@
       <c r="AH35" s="17"/>
       <c r="AI35" s="21"/>
     </row>
-    <row r="36" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="36" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17"/>
       <c r="E36" s="21"/>
       <c r="F36" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="32"/>
       <c r="O36" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" s="31"/>
       <c r="Q36" s="31"/>
@@ -2600,7 +2652,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
       <c r="U36" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V36" s="31"/>
       <c r="W36" s="31"/>
@@ -2617,27 +2669,27 @@
       <c r="AH36" s="32"/>
       <c r="AI36" s="21"/>
     </row>
-    <row r="37" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="37" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="17"/>
       <c r="E37" s="21"/>
       <c r="F37" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="35"/>
       <c r="O37" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
@@ -2645,7 +2697,7 @@
       <c r="S37" s="17"/>
       <c r="T37" s="35"/>
       <c r="U37" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -2662,7 +2714,7 @@
       <c r="AH37" s="35"/>
       <c r="AI37" s="21"/>
     </row>
-    <row r="38" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="38" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -2699,27 +2751,27 @@
       <c r="AH38" s="38"/>
       <c r="AI38" s="21"/>
     </row>
-    <row r="39" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="39" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="17"/>
       <c r="E39" s="21"/>
       <c r="F39" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="35"/>
       <c r="O39" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -2727,7 +2779,7 @@
       <c r="S39" s="17"/>
       <c r="T39" s="35"/>
       <c r="U39" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
@@ -2744,7 +2796,7 @@
       <c r="AH39" s="35"/>
       <c r="AI39" s="21"/>
     </row>
-    <row r="40" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="40" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2781,27 +2833,27 @@
       <c r="AH40" s="38"/>
       <c r="AI40" s="21"/>
     </row>
-    <row r="41" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="41" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="17"/>
       <c r="E41" s="21"/>
       <c r="F41" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="35"/>
       <c r="O41" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
@@ -2809,7 +2861,7 @@
       <c r="S41" s="17"/>
       <c r="T41" s="35"/>
       <c r="U41" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
@@ -2826,7 +2878,7 @@
       <c r="AH41" s="35"/>
       <c r="AI41" s="21"/>
     </row>
-    <row r="42" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="42" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2849,7 +2901,7 @@
       <c r="T42" s="35"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
@@ -2865,7 +2917,7 @@
       <c r="AH42" s="35"/>
       <c r="AI42" s="21"/>
     </row>
-    <row r="43" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="43" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2888,7 +2940,7 @@
       <c r="T43" s="35"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
@@ -2904,7 +2956,7 @@
       <c r="AH43" s="35"/>
       <c r="AI43" s="21"/>
     </row>
-    <row r="44" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="44" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2941,14 +2993,14 @@
       <c r="AH44" s="38"/>
       <c r="AI44" s="21"/>
     </row>
-    <row r="45" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="45" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -2980,7 +3032,7 @@
       <c r="AH45" s="17"/>
       <c r="AI45" s="21"/>
     </row>
-    <row r="46" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="46" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3017,16 +3069,16 @@
       <c r="AH46" s="17"/>
       <c r="AI46" s="21"/>
     </row>
-    <row r="47" spans="1:35" ht="11.25" customHeight="1">
+    <row r="47" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="28"/>
       <c r="E47" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -3058,14 +3110,14 @@
       <c r="AH47" s="21"/>
       <c r="AI47" s="21"/>
     </row>
-    <row r="48" spans="1:35" ht="11.25" customHeight="1">
+    <row r="48" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="28"/>
       <c r="E48" s="22"/>
       <c r="F48" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -3097,14 +3149,14 @@
       <c r="AH48" s="21"/>
       <c r="AI48" s="21"/>
     </row>
-    <row r="49" spans="1:35" ht="11.25" customHeight="1">
+    <row r="49" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="D49" s="28"/>
       <c r="E49" s="17"/>
       <c r="F49" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -3136,14 +3188,14 @@
       <c r="AH49" s="21"/>
       <c r="AI49" s="21"/>
     </row>
-    <row r="50" spans="1:35" ht="11.25" customHeight="1">
+    <row r="50" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
       <c r="D50" s="28"/>
       <c r="E50" s="22"/>
       <c r="F50" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -3175,7 +3227,7 @@
       <c r="AH50" s="21"/>
       <c r="AI50" s="21"/>
     </row>
-    <row r="51" spans="1:35" ht="11.25" customHeight="1">
+    <row r="51" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3212,7 +3264,7 @@
       <c r="AH51" s="21"/>
       <c r="AI51" s="21"/>
     </row>
-    <row r="52" spans="1:35" ht="11.25" customHeight="1">
+    <row r="52" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3254,16 +3306,16 @@
       <c r="AH52" s="21"/>
       <c r="AI52" s="21"/>
     </row>
-    <row r="53" spans="1:35" ht="11.25" customHeight="1">
+    <row r="53" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -3295,14 +3347,14 @@
       <c r="AH53" s="17"/>
       <c r="AI53" s="21"/>
     </row>
-    <row r="54" spans="1:35" ht="11.25" customHeight="1">
+    <row r="54" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
       <c r="F54" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -3334,14 +3386,14 @@
       <c r="AH54" s="17"/>
       <c r="AI54" s="21"/>
     </row>
-    <row r="55" spans="1:35" ht="11.25" customHeight="1">
+    <row r="55" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -3373,14 +3425,14 @@
       <c r="AH55" s="17"/>
       <c r="AI55" s="21"/>
     </row>
-    <row r="56" spans="1:35" ht="11.25" customHeight="1">
+    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
       <c r="E56" s="40"/>
       <c r="F56" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -3412,7 +3464,7 @@
       <c r="AH56" s="17"/>
       <c r="AI56" s="21"/>
     </row>
-    <row r="57" spans="1:35" ht="11.25" customHeight="1">
+    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3449,7 +3501,7 @@
       <c r="AH57" s="17"/>
       <c r="AI57" s="21"/>
     </row>
-    <row r="58" spans="1:35" ht="11.25" customHeight="1">
+    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -3458,7 +3510,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -3490,7 +3542,7 @@
       <c r="AH58" s="17"/>
       <c r="AI58" s="21"/>
     </row>
-    <row r="59" spans="1:35" ht="11.25" customHeight="1">
+    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -3529,7 +3581,7 @@
       <c r="AH59" s="17"/>
       <c r="AI59" s="21"/>
     </row>
-    <row r="60" spans="1:35" ht="11.25" customHeight="1">
+    <row r="60" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="19"/>
@@ -3544,7 +3596,7 @@
       <c r="AG60" s="16"/>
       <c r="AH60" s="16"/>
     </row>
-    <row r="61" spans="1:35" ht="11.25" customHeight="1">
+    <row r="61" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="16"/>
       <c r="F61" s="18"/>
       <c r="T61" s="16"/>
@@ -3563,7 +3615,7 @@
       <c r="AG61" s="16"/>
       <c r="AH61" s="16"/>
     </row>
-    <row r="62" spans="1:35" ht="10.5" customHeight="1">
+    <row r="62" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="14"/>
       <c r="U62" s="16"/>
       <c r="V62" s="16"/>
@@ -3580,458 +3632,453 @@
       <c r="AG62" s="16"/>
       <c r="AH62" s="16"/>
     </row>
-    <row r="63" spans="1:35" ht="11.25" customHeight="1">
+    <row r="63" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="14"/>
     </row>
-    <row r="64" spans="1:35" ht="11.25" customHeight="1"/>
-    <row r="65" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="66" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="67" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="68" spans="6:6" ht="11.25" customHeight="1">
+    <row r="64" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F68" s="14"/>
     </row>
-    <row r="69" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="70" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="73" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="74" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="75" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="76" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="77" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="78" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="79" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="80" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="81" ht="11.25" customHeight="1"/>
-    <row r="82" ht="11.25" customHeight="1"/>
-    <row r="83" ht="11.25" customHeight="1"/>
-    <row r="84" ht="11.25" customHeight="1"/>
-    <row r="85" ht="11.25" customHeight="1"/>
-    <row r="86" ht="11.25" customHeight="1"/>
-    <row r="87" ht="11.25" customHeight="1"/>
-    <row r="88" ht="11.25" customHeight="1"/>
-    <row r="89" ht="11.25" customHeight="1"/>
-    <row r="90" ht="11.25" customHeight="1"/>
-    <row r="91" ht="11.25" customHeight="1"/>
-    <row r="92" ht="11.25" customHeight="1"/>
-    <row r="93" ht="11.25" customHeight="1"/>
-    <row r="94" ht="11.25" customHeight="1"/>
-    <row r="95" ht="11.25" customHeight="1"/>
-    <row r="96" ht="11.25" customHeight="1"/>
-    <row r="97" ht="11.25" customHeight="1"/>
-    <row r="98" ht="11.25" customHeight="1"/>
-    <row r="99" ht="11.25" customHeight="1"/>
-    <row r="100" ht="11.25" customHeight="1"/>
-    <row r="101" ht="11.25" customHeight="1"/>
-    <row r="102" ht="11.25" customHeight="1"/>
-    <row r="103" ht="11.25" customHeight="1"/>
-    <row r="104" ht="11.25" customHeight="1"/>
-    <row r="105" ht="11.25" customHeight="1"/>
-    <row r="106" ht="11.25" customHeight="1"/>
-    <row r="107" ht="11.25" customHeight="1"/>
-    <row r="108" ht="11.25" customHeight="1"/>
-    <row r="109" ht="11.25" customHeight="1"/>
-    <row r="110" ht="11.25" customHeight="1"/>
-    <row r="111" ht="11.25" customHeight="1"/>
-    <row r="112" ht="11.25" customHeight="1"/>
-    <row r="113" ht="11.25" customHeight="1"/>
-    <row r="114" ht="11.25" customHeight="1"/>
-    <row r="115" ht="11.25" customHeight="1"/>
-    <row r="116" ht="11.25" customHeight="1"/>
-    <row r="117" ht="11.25" customHeight="1"/>
-    <row r="118" ht="11.25" customHeight="1"/>
-    <row r="119" ht="11.25" customHeight="1"/>
-    <row r="120" ht="11.25" customHeight="1"/>
-    <row r="121" ht="11.25" customHeight="1"/>
-    <row r="122" ht="11.25" customHeight="1"/>
-    <row r="123" ht="11.25" customHeight="1"/>
-    <row r="124" ht="11.25" customHeight="1"/>
-    <row r="125" ht="11.25" customHeight="1"/>
-    <row r="126" ht="11.25" customHeight="1"/>
-    <row r="127" ht="11.25" customHeight="1"/>
-    <row r="128" ht="11.25" customHeight="1"/>
-    <row r="129" ht="11.25" customHeight="1"/>
-    <row r="130" ht="11.25" customHeight="1"/>
-    <row r="131" ht="11.25" customHeight="1"/>
-    <row r="132" ht="11.25" customHeight="1"/>
-    <row r="133" ht="11.25" customHeight="1"/>
-    <row r="134" ht="11.25" customHeight="1"/>
-    <row r="135" ht="11.25" customHeight="1"/>
-    <row r="136" ht="11.25" customHeight="1"/>
-    <row r="137" ht="11.25" customHeight="1"/>
-    <row r="138" ht="11.25" customHeight="1"/>
-    <row r="139" ht="11.25" customHeight="1"/>
-    <row r="140" ht="11.25" customHeight="1"/>
-    <row r="141" ht="11.25" customHeight="1"/>
-    <row r="142" ht="11.25" customHeight="1"/>
-    <row r="143" ht="11.25" customHeight="1"/>
-    <row r="144" ht="11.25" customHeight="1"/>
-    <row r="145" ht="11.25" customHeight="1"/>
-    <row r="146" ht="11.25" customHeight="1"/>
-    <row r="147" ht="11.25" customHeight="1"/>
-    <row r="148" ht="11.25" customHeight="1"/>
-    <row r="149" ht="11.25" customHeight="1"/>
-    <row r="150" ht="11.25" customHeight="1"/>
-    <row r="151" ht="11.25" customHeight="1"/>
-    <row r="152" ht="11.25" customHeight="1"/>
-    <row r="153" ht="11.25" customHeight="1"/>
-    <row r="154" ht="11.25" customHeight="1"/>
-    <row r="155" ht="11.25" customHeight="1"/>
-    <row r="156" ht="11.25" customHeight="1"/>
-    <row r="157" ht="11.25" customHeight="1"/>
-    <row r="158" ht="11.25" customHeight="1"/>
-    <row r="159" ht="11.25" customHeight="1"/>
-    <row r="160" ht="11.25" customHeight="1"/>
-    <row r="161" ht="11.25" customHeight="1"/>
-    <row r="162" ht="11.25" customHeight="1"/>
-    <row r="163" ht="11.25" customHeight="1"/>
-    <row r="164" ht="11.25" customHeight="1"/>
-    <row r="165" ht="11.25" customHeight="1"/>
-    <row r="166" ht="11.25" customHeight="1"/>
-    <row r="167" ht="11.25" customHeight="1"/>
-    <row r="168" ht="11.25" customHeight="1"/>
-    <row r="169" ht="11.25" customHeight="1"/>
-    <row r="170" ht="11.25" customHeight="1"/>
-    <row r="171" ht="11.25" customHeight="1"/>
-    <row r="172" ht="11.25" customHeight="1"/>
-    <row r="173" ht="11.25" customHeight="1"/>
-    <row r="174" ht="11.25" customHeight="1"/>
-    <row r="175" ht="11.25" customHeight="1"/>
-    <row r="176" ht="11.25" customHeight="1"/>
-    <row r="177" ht="11.25" customHeight="1"/>
-    <row r="178" ht="11.25" customHeight="1"/>
-    <row r="179" ht="11.25" customHeight="1"/>
-    <row r="180" ht="11.25" customHeight="1"/>
-    <row r="181" ht="11.25" customHeight="1"/>
-    <row r="182" ht="11.25" customHeight="1"/>
-    <row r="183" ht="11.25" customHeight="1"/>
-    <row r="184" ht="11.25" customHeight="1"/>
-    <row r="185" ht="11.25" customHeight="1"/>
-    <row r="186" ht="11.25" customHeight="1"/>
-    <row r="187" ht="11.25" customHeight="1"/>
-    <row r="188" ht="11.25" customHeight="1"/>
-    <row r="189" ht="11.25" customHeight="1"/>
-    <row r="190" ht="11.25" customHeight="1"/>
-    <row r="191" ht="11.25" customHeight="1"/>
-    <row r="192" ht="11.25" customHeight="1"/>
-    <row r="193" ht="11.25" customHeight="1"/>
-    <row r="194" ht="11.25" customHeight="1"/>
-    <row r="195" ht="11.25" customHeight="1"/>
-    <row r="196" ht="11.25" customHeight="1"/>
-    <row r="197" ht="11.25" customHeight="1"/>
-    <row r="198" ht="11.25" customHeight="1"/>
-    <row r="199" ht="11.25" customHeight="1"/>
-    <row r="200" ht="11.25" customHeight="1"/>
-    <row r="201" ht="11.25" customHeight="1"/>
-    <row r="202" ht="11.25" customHeight="1"/>
-    <row r="203" ht="11.25" customHeight="1"/>
-    <row r="204" ht="11.25" customHeight="1"/>
-    <row r="205" ht="11.25" customHeight="1"/>
-    <row r="206" ht="11.25" customHeight="1"/>
-    <row r="207" ht="11.25" customHeight="1"/>
-    <row r="208" ht="11.25" customHeight="1"/>
-    <row r="209" ht="11.25" customHeight="1"/>
-    <row r="210" ht="11.25" customHeight="1"/>
-    <row r="211" ht="11.25" customHeight="1"/>
-    <row r="212" ht="11.25" customHeight="1"/>
-    <row r="213" ht="11.25" customHeight="1"/>
-    <row r="214" ht="11.25" customHeight="1"/>
-    <row r="215" ht="11.25" customHeight="1"/>
-    <row r="216" ht="11.25" customHeight="1"/>
-    <row r="217" ht="11.25" customHeight="1"/>
-    <row r="218" ht="11.25" customHeight="1"/>
-    <row r="219" ht="11.25" customHeight="1"/>
-    <row r="220" ht="11.25" customHeight="1"/>
-    <row r="221" ht="11.25" customHeight="1"/>
-    <row r="222" ht="11.25" customHeight="1"/>
-    <row r="223" ht="11.25" customHeight="1"/>
-    <row r="224" ht="11.25" customHeight="1"/>
-    <row r="225" ht="11.25" customHeight="1"/>
-    <row r="226" ht="11.25" customHeight="1"/>
-    <row r="227" ht="11.25" customHeight="1"/>
-    <row r="228" ht="11.25" customHeight="1"/>
-    <row r="229" ht="11.25" customHeight="1"/>
-    <row r="230" ht="11.25" customHeight="1"/>
-    <row r="231" ht="11.25" customHeight="1"/>
-    <row r="232" ht="11.25" customHeight="1"/>
-    <row r="233" ht="11.25" customHeight="1"/>
-    <row r="234" ht="11.25" customHeight="1"/>
-    <row r="235" ht="11.25" customHeight="1"/>
-    <row r="236" ht="11.25" customHeight="1"/>
-    <row r="237" ht="11.25" customHeight="1"/>
-    <row r="238" ht="11.25" customHeight="1"/>
-    <row r="239" ht="11.25" customHeight="1"/>
-    <row r="240" ht="11.25" customHeight="1"/>
-    <row r="241" ht="11.25" customHeight="1"/>
-    <row r="242" ht="11.25" customHeight="1"/>
-    <row r="243" ht="11.25" customHeight="1"/>
-    <row r="244" ht="11.25" customHeight="1"/>
-    <row r="245" ht="11.25" customHeight="1"/>
-    <row r="246" ht="11.25" customHeight="1"/>
-    <row r="247" ht="11.25" customHeight="1"/>
-    <row r="248" ht="11.25" customHeight="1"/>
-    <row r="249" ht="11.25" customHeight="1"/>
-    <row r="250" ht="11.25" customHeight="1"/>
-    <row r="251" ht="11.25" customHeight="1"/>
-    <row r="252" ht="11.25" customHeight="1"/>
-    <row r="253" ht="11.25" customHeight="1"/>
-    <row r="254" ht="11.25" customHeight="1"/>
-    <row r="255" ht="11.25" customHeight="1"/>
-    <row r="256" ht="11.25" customHeight="1"/>
-    <row r="257" ht="11.25" customHeight="1"/>
-    <row r="258" ht="11.25" customHeight="1"/>
-    <row r="259" ht="11.25" customHeight="1"/>
-    <row r="260" ht="11.25" customHeight="1"/>
-    <row r="261" ht="11.25" customHeight="1"/>
-    <row r="262" ht="11.25" customHeight="1"/>
-    <row r="263" ht="11.25" customHeight="1"/>
-    <row r="264" ht="11.25" customHeight="1"/>
-    <row r="265" ht="11.25" customHeight="1"/>
-    <row r="266" ht="11.25" customHeight="1"/>
-    <row r="267" ht="11.25" customHeight="1"/>
-    <row r="268" ht="11.25" customHeight="1"/>
-    <row r="269" ht="11.25" customHeight="1"/>
-    <row r="270" ht="11.25" customHeight="1"/>
-    <row r="271" ht="11.25" customHeight="1"/>
-    <row r="272" ht="11.25" customHeight="1"/>
-    <row r="273" ht="11.25" customHeight="1"/>
-    <row r="274" ht="11.25" customHeight="1"/>
-    <row r="275" ht="11.25" customHeight="1"/>
-    <row r="276" ht="11.25" customHeight="1"/>
-    <row r="277" ht="11.25" customHeight="1"/>
-    <row r="278" ht="11.25" customHeight="1"/>
-    <row r="279" ht="11.25" customHeight="1"/>
-    <row r="280" ht="11.25" customHeight="1"/>
-    <row r="281" ht="11.25" customHeight="1"/>
-    <row r="282" ht="11.25" customHeight="1"/>
-    <row r="283" ht="11.25" customHeight="1"/>
-    <row r="284" ht="11.25" customHeight="1"/>
-    <row r="285" ht="11.25" customHeight="1"/>
-    <row r="286" ht="11.25" customHeight="1"/>
-    <row r="287" ht="11.25" customHeight="1"/>
-    <row r="288" ht="11.25" customHeight="1"/>
-    <row r="289" ht="11.25" customHeight="1"/>
-    <row r="290" ht="11.25" customHeight="1"/>
-    <row r="291" ht="11.25" customHeight="1"/>
-    <row r="292" ht="11.25" customHeight="1"/>
-    <row r="293" ht="11.25" customHeight="1"/>
-    <row r="294" ht="11.25" customHeight="1"/>
-    <row r="295" ht="11.25" customHeight="1"/>
-    <row r="296" ht="11.25" customHeight="1"/>
-    <row r="297" ht="11.25" customHeight="1"/>
-    <row r="298" ht="11.25" customHeight="1"/>
-    <row r="299" ht="11.25" customHeight="1"/>
-    <row r="300" ht="11.25" customHeight="1"/>
-    <row r="301" ht="11.25" customHeight="1"/>
-    <row r="302" ht="11.25" customHeight="1"/>
-    <row r="303" ht="11.25" customHeight="1"/>
-    <row r="304" ht="11.25" customHeight="1"/>
-    <row r="305" ht="11.25" customHeight="1"/>
-    <row r="306" ht="11.25" customHeight="1"/>
-    <row r="307" ht="11.25" customHeight="1"/>
-    <row r="308" ht="11.25" customHeight="1"/>
-    <row r="309" ht="11.25" customHeight="1"/>
-    <row r="310" ht="11.25" customHeight="1"/>
-    <row r="311" ht="11.25" customHeight="1"/>
-    <row r="312" ht="11.25" customHeight="1"/>
-    <row r="313" ht="11.25" customHeight="1"/>
-    <row r="314" ht="11.25" customHeight="1"/>
-    <row r="315" ht="11.25" customHeight="1"/>
-    <row r="316" ht="11.25" customHeight="1"/>
-    <row r="317" ht="11.25" customHeight="1"/>
-    <row r="318" ht="11.25" customHeight="1"/>
-    <row r="319" ht="11.25" customHeight="1"/>
-    <row r="320" ht="11.25" customHeight="1"/>
-    <row r="321" ht="11.25" customHeight="1"/>
-    <row r="322" ht="11.25" customHeight="1"/>
-    <row r="323" ht="11.25" customHeight="1"/>
-    <row r="324" ht="11.25" customHeight="1"/>
-    <row r="325" ht="11.25" customHeight="1"/>
-    <row r="326" ht="11.25" customHeight="1"/>
-    <row r="327" ht="11.25" customHeight="1"/>
-    <row r="328" ht="11.25" customHeight="1"/>
-    <row r="329" ht="11.25" customHeight="1"/>
-    <row r="330" ht="11.25" customHeight="1"/>
-    <row r="331" ht="11.25" customHeight="1"/>
-    <row r="332" ht="11.25" customHeight="1"/>
-    <row r="333" ht="11.25" customHeight="1"/>
-    <row r="334" ht="11.25" customHeight="1"/>
-    <row r="335" ht="11.25" customHeight="1"/>
-    <row r="336" ht="11.25" customHeight="1"/>
-    <row r="337" ht="11.25" customHeight="1"/>
-    <row r="338" ht="11.25" customHeight="1"/>
-    <row r="339" ht="11.25" customHeight="1"/>
-    <row r="340" ht="11.25" customHeight="1"/>
-    <row r="341" ht="11.25" customHeight="1"/>
-    <row r="342" ht="11.25" customHeight="1"/>
-    <row r="343" ht="11.25" customHeight="1"/>
-    <row r="344" ht="11.25" customHeight="1"/>
-    <row r="345" ht="11.25" customHeight="1"/>
-    <row r="346" ht="11.25" customHeight="1"/>
-    <row r="347" ht="11.25" customHeight="1"/>
-    <row r="348" ht="11.25" customHeight="1"/>
-    <row r="349" ht="11.25" customHeight="1"/>
-    <row r="350" ht="11.25" customHeight="1"/>
-    <row r="351" ht="11.25" customHeight="1"/>
-    <row r="352" ht="11.25" customHeight="1"/>
-    <row r="353" ht="11.25" customHeight="1"/>
-    <row r="354" ht="11.25" customHeight="1"/>
-    <row r="355" ht="11.25" customHeight="1"/>
-    <row r="356" ht="11.25" customHeight="1"/>
-    <row r="357" ht="11.25" customHeight="1"/>
-    <row r="358" ht="11.25" customHeight="1"/>
-    <row r="359" ht="11.25" customHeight="1"/>
-    <row r="360" ht="11.25" customHeight="1"/>
-    <row r="361" ht="11.25" customHeight="1"/>
-    <row r="362" ht="11.25" customHeight="1"/>
-    <row r="363" ht="11.25" customHeight="1"/>
-    <row r="364" ht="11.25" customHeight="1"/>
-    <row r="365" ht="11.25" customHeight="1"/>
-    <row r="366" ht="11.25" customHeight="1"/>
-    <row r="367" ht="11.25" customHeight="1"/>
-    <row r="368" ht="11.25" customHeight="1"/>
-    <row r="369" ht="11.25" customHeight="1"/>
-    <row r="370" ht="11.25" customHeight="1"/>
-    <row r="371" ht="11.25" customHeight="1"/>
-    <row r="372" ht="11.25" customHeight="1"/>
-    <row r="373" ht="11.25" customHeight="1"/>
-    <row r="374" ht="11.25" customHeight="1"/>
-    <row r="375" ht="11.25" customHeight="1"/>
-    <row r="376" ht="11.25" customHeight="1"/>
-    <row r="377" ht="11.25" customHeight="1"/>
-    <row r="378" ht="11.25" customHeight="1"/>
-    <row r="379" ht="11.25" customHeight="1"/>
-    <row r="380" ht="11.25" customHeight="1"/>
-    <row r="381" ht="11.25" customHeight="1"/>
-    <row r="382" ht="11.25" customHeight="1"/>
-    <row r="383" ht="11.25" customHeight="1"/>
-    <row r="384" ht="11.25" customHeight="1"/>
-    <row r="385" ht="11.25" customHeight="1"/>
-    <row r="386" ht="11.25" customHeight="1"/>
-    <row r="387" ht="11.25" customHeight="1"/>
-    <row r="388" ht="11.25" customHeight="1"/>
-    <row r="389" ht="11.25" customHeight="1"/>
-    <row r="390" ht="11.25" customHeight="1"/>
-    <row r="391" ht="11.25" customHeight="1"/>
-    <row r="392" ht="11.25" customHeight="1"/>
-    <row r="393" ht="11.25" customHeight="1"/>
-    <row r="394" ht="11.25" customHeight="1"/>
-    <row r="395" ht="11.25" customHeight="1"/>
-    <row r="396" ht="11.25" customHeight="1"/>
-    <row r="397" ht="11.25" customHeight="1"/>
-    <row r="398" ht="11.25" customHeight="1"/>
-    <row r="399" ht="11.25" customHeight="1"/>
-    <row r="400" ht="11.25" customHeight="1"/>
-    <row r="401" ht="11.25" customHeight="1"/>
-    <row r="402" ht="11.25" customHeight="1"/>
-    <row r="403" ht="11.25" customHeight="1"/>
-    <row r="404" ht="11.25" customHeight="1"/>
-    <row r="405" ht="11.25" customHeight="1"/>
-    <row r="406" ht="11.25" customHeight="1"/>
-    <row r="407" ht="11.25" customHeight="1"/>
-    <row r="408" ht="11.25" customHeight="1"/>
-    <row r="409" ht="11.25" customHeight="1"/>
-    <row r="410" ht="11.25" customHeight="1"/>
-    <row r="411" ht="11.25" customHeight="1"/>
-    <row r="412" ht="11.25" customHeight="1"/>
-    <row r="413" ht="11.25" customHeight="1"/>
-    <row r="414" ht="11.25" customHeight="1"/>
-    <row r="415" ht="11.25" customHeight="1"/>
-    <row r="416" ht="11.25" customHeight="1"/>
-    <row r="417" ht="11.25" customHeight="1"/>
-    <row r="418" ht="11.25" customHeight="1"/>
-    <row r="419" ht="11.25" customHeight="1"/>
-    <row r="420" ht="11.25" customHeight="1"/>
-    <row r="421" ht="11.25" customHeight="1"/>
-    <row r="422" ht="11.25" customHeight="1"/>
-    <row r="423" ht="11.25" customHeight="1"/>
-    <row r="424" ht="11.25" customHeight="1"/>
-    <row r="425" ht="11.25" customHeight="1"/>
-    <row r="426" ht="11.25" customHeight="1"/>
-    <row r="427" ht="11.25" customHeight="1"/>
-    <row r="428" ht="11.25" customHeight="1"/>
-    <row r="429" ht="11.25" customHeight="1"/>
-    <row r="430" ht="11.25" customHeight="1"/>
-    <row r="431" ht="11.25" customHeight="1"/>
-    <row r="432" ht="11.25" customHeight="1"/>
-    <row r="433" ht="11.25" customHeight="1"/>
-    <row r="434" ht="11.25" customHeight="1"/>
-    <row r="435" ht="11.25" customHeight="1"/>
-    <row r="436" ht="11.25" customHeight="1"/>
-    <row r="437" ht="11.25" customHeight="1"/>
-    <row r="438" ht="11.25" customHeight="1"/>
-    <row r="439" ht="11.25" customHeight="1"/>
-    <row r="440" ht="11.25" customHeight="1"/>
-    <row r="441" ht="11.25" customHeight="1"/>
-    <row r="442" ht="11.25" customHeight="1"/>
-    <row r="443" ht="11.25" customHeight="1"/>
-    <row r="444" ht="11.25" customHeight="1"/>
-    <row r="445" ht="11.25" customHeight="1"/>
-    <row r="446" ht="11.25" customHeight="1"/>
-    <row r="447" ht="11.25" customHeight="1"/>
-    <row r="448" ht="11.25" customHeight="1"/>
-    <row r="449" ht="11.25" customHeight="1"/>
-    <row r="450" ht="11.25" customHeight="1"/>
-    <row r="451" ht="11.25" customHeight="1"/>
-    <row r="452" ht="11.25" customHeight="1"/>
-    <row r="453" ht="11.25" customHeight="1"/>
-    <row r="454" ht="11.25" customHeight="1"/>
-    <row r="455" ht="11.25" customHeight="1"/>
-    <row r="456" ht="11.25" customHeight="1"/>
-    <row r="457" ht="11.25" customHeight="1"/>
-    <row r="458" ht="11.25" customHeight="1"/>
-    <row r="459" ht="11.25" customHeight="1"/>
-    <row r="460" ht="11.25" customHeight="1"/>
-    <row r="461" ht="11.25" customHeight="1"/>
-    <row r="462" ht="11.25" customHeight="1"/>
-    <row r="463" ht="11.25" customHeight="1"/>
-    <row r="464" ht="11.25" customHeight="1"/>
-    <row r="465" ht="11.25" customHeight="1"/>
-    <row r="466" ht="11.25" customHeight="1"/>
-    <row r="467" ht="11.25" customHeight="1"/>
-    <row r="468" ht="11.25" customHeight="1"/>
-    <row r="469" ht="11.25" customHeight="1"/>
-    <row r="470" ht="11.25" customHeight="1"/>
-    <row r="471" ht="11.25" customHeight="1"/>
-    <row r="472" ht="11.25" customHeight="1"/>
-    <row r="473" ht="11.25" customHeight="1"/>
-    <row r="474" ht="11.25" customHeight="1"/>
-    <row r="475" ht="11.25" customHeight="1"/>
-    <row r="476" ht="11.25" customHeight="1"/>
-    <row r="477" ht="11.25" customHeight="1"/>
-    <row r="478" ht="11.25" customHeight="1"/>
-    <row r="479" ht="11.25" customHeight="1"/>
-    <row r="480" ht="11.25" customHeight="1"/>
-    <row r="481" ht="11.25" customHeight="1"/>
-    <row r="482" ht="11.25" customHeight="1"/>
-    <row r="483" ht="11.25" customHeight="1"/>
-    <row r="484" ht="11.25" customHeight="1"/>
-    <row r="485" ht="11.25" customHeight="1"/>
-    <row r="486" ht="11.25" customHeight="1"/>
-    <row r="487" ht="11.25" customHeight="1"/>
-    <row r="488" ht="11.25" customHeight="1"/>
-    <row r="489" ht="11.25" customHeight="1"/>
-    <row r="490" ht="11.25" customHeight="1"/>
-    <row r="491" ht="11.25" customHeight="1"/>
-    <row r="492" ht="11.25" customHeight="1"/>
-    <row r="493" ht="11.25" customHeight="1"/>
-    <row r="494" ht="11.25" customHeight="1"/>
-    <row r="495" ht="11.25" customHeight="1"/>
-    <row r="496" ht="11.25" customHeight="1"/>
-    <row r="497" ht="11.25" customHeight="1"/>
-    <row r="498" ht="11.25" customHeight="1"/>
-    <row r="499" ht="11.25" customHeight="1"/>
-    <row r="500" ht="11.25" customHeight="1"/>
-    <row r="501" ht="11.25" customHeight="1"/>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4042,10 +4089,15 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:O25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:O25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBFC02-E7AF-4131-A18A-E4EF1619A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389F6C7-E947-4C4B-B7CE-786BB90B0C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,10 +396,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画像ファイルの取込、表示が頻繁的に発生するため、操作上の利便性が高い。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本システムの管理方式は以下の通り。</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -465,6 +461,10 @@
     <rPh sb="39" eb="41">
       <t>カイセツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像ファイルの取込、表示が頻繁に発生するため、操作上の利便性が高い。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -913,6 +913,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -966,63 +1023,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1391,43 +1391,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="98"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
+      <c r="R1" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="64"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="70"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1436,43 +1436,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="91"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="92" t="s">
+      <c r="R2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="94"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="70"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1481,39 +1481,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="97"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="70"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1615,7 +1615,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1691,7 +1691,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1772,15 +1772,15 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="41" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="41" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -1815,13 +1815,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1852,17 +1852,17 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
@@ -1895,15 +1895,15 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
       <c r="L17" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
@@ -1934,13 +1934,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -1971,15 +1971,15 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -2010,13 +2010,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -2047,13 +2047,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2084,15 +2084,15 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2123,13 +2123,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -4079,6 +4079,11 @@
     <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4089,11 +4094,6 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389F6C7-E947-4C4B-B7CE-786BB90B0C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F93C70-2BE0-4034-A15F-0098667270B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,22 +177,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実現簡潔、ファイル削除、退避など処理も簡単。</t>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイヒ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンタン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -465,6 +449,10 @@
   </si>
   <si>
     <t>画像ファイルの取込、表示が頻繁に発生するため、操作上の利便性が高い。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル削除、退避などの処理の実現が容易であるため。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -913,6 +901,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -969,60 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1391,43 +1379,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
+      <c r="R1" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1436,43 +1424,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="94"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1481,39 +1469,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="97"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1615,7 +1603,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1691,7 +1679,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1730,7 +1718,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -1772,23 +1760,23 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="E14" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -1815,13 +1803,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1852,23 +1840,23 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="E16" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="54"/>
       <c r="P16" s="47" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -1895,15 +1883,15 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
@@ -1934,13 +1922,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -1971,15 +1959,15 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="E19" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -2010,13 +1998,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -2047,13 +2035,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2084,15 +2072,15 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
+      <c r="E22" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2123,13 +2111,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -2277,10 +2265,10 @@
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2318,10 +2306,10 @@
       <c r="C28" s="21"/>
       <c r="D28" s="28"/>
       <c r="E28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -2360,7 +2348,7 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -2399,7 +2387,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -2438,7 +2426,7 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2477,7 +2465,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -2553,7 +2541,7 @@
       <c r="D34" s="17"/>
       <c r="E34" s="21"/>
       <c r="F34" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -2592,7 +2580,7 @@
       <c r="D35" s="17"/>
       <c r="E35" s="21"/>
       <c r="F35" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -2631,20 +2619,20 @@
       <c r="D36" s="17"/>
       <c r="E36" s="21"/>
       <c r="F36" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="32"/>
       <c r="O36" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P36" s="31"/>
       <c r="Q36" s="31"/>
@@ -2652,7 +2640,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
       <c r="U36" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" s="31"/>
       <c r="W36" s="31"/>
@@ -2676,20 +2664,20 @@
       <c r="D37" s="17"/>
       <c r="E37" s="21"/>
       <c r="F37" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="35"/>
       <c r="O37" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
@@ -2697,7 +2685,7 @@
       <c r="S37" s="17"/>
       <c r="T37" s="35"/>
       <c r="U37" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -2758,20 +2746,20 @@
       <c r="D39" s="17"/>
       <c r="E39" s="21"/>
       <c r="F39" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="35"/>
       <c r="O39" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -2779,7 +2767,7 @@
       <c r="S39" s="17"/>
       <c r="T39" s="35"/>
       <c r="U39" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
@@ -2840,20 +2828,20 @@
       <c r="D41" s="17"/>
       <c r="E41" s="21"/>
       <c r="F41" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="35"/>
       <c r="O41" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
@@ -2861,7 +2849,7 @@
       <c r="S41" s="17"/>
       <c r="T41" s="35"/>
       <c r="U41" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
@@ -2901,7 +2889,7 @@
       <c r="T42" s="35"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
@@ -2940,7 +2928,7 @@
       <c r="T43" s="35"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
@@ -3000,7 +2988,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3075,10 +3063,10 @@
       <c r="C47" s="21"/>
       <c r="D47" s="28"/>
       <c r="E47" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -3117,7 +3105,7 @@
       <c r="D48" s="28"/>
       <c r="E48" s="22"/>
       <c r="F48" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -3156,7 +3144,7 @@
       <c r="D49" s="28"/>
       <c r="E49" s="17"/>
       <c r="F49" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -3195,7 +3183,7 @@
       <c r="D50" s="28"/>
       <c r="E50" s="22"/>
       <c r="F50" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -4079,11 +4067,6 @@
     <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4094,6 +4077,11 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F93C70-2BE0-4034-A15F-0098667270B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E7302-95E1-4D77-8BDE-4F8E7E094E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,25 +380,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムの管理方式は以下の通り。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -453,6 +434,46 @@
   </si>
   <si>
     <t>ファイル削除、退避などの処理の実現が容易であるため。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは以下の処理と管理方式の対応を採用する。採用理由は表に記載の通り。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トオ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -901,6 +922,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -954,63 +1032,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1379,43 +1400,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="98"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
+      <c r="R1" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="64"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="70"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1424,43 +1445,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="91"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="92" t="s">
+      <c r="R2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="94"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="70"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1469,39 +1490,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="97"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="70"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1603,7 +1624,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1679,7 +1700,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1760,15 +1781,15 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="41" t="s">
         <v>26</v>
       </c>
@@ -1776,7 +1797,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -1803,13 +1824,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1840,23 +1861,23 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="54"/>
       <c r="P16" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -1883,15 +1904,15 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
       <c r="L17" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
@@ -1922,13 +1943,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -1959,15 +1980,15 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -1998,13 +2019,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -2035,13 +2056,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2072,15 +2093,15 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2111,13 +2132,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -4067,6 +4088,11 @@
     <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4077,11 +4103,6 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E7302-95E1-4D77-8BDE-4F8E7E094E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43638DC-4509-41F2-81E3-1BFE197A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -130,13 +130,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ファイルをディレクトリに保持</t>
-    <rPh sb="12" eb="14">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -154,16 +147,6 @@
   </si>
   <si>
     <t>Nablarchはシステムで使用するファイルの入出力先のディレクトリや拡張子を管理するための機能を提供する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイルをディレクトリに保持詳細</t>
-    <rPh sb="12" eb="14">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウサイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -188,24 +171,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>7.11.2.1.</t>
-  </si>
-  <si>
-    <t>ファイルをDBに保持</t>
-    <rPh sb="8" eb="10">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1)</t>
-  </si>
-  <si>
-    <t>ファイルをDBに保持詳細</t>
-    <rPh sb="10" eb="12">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>業務ファイルをファイル管理テーブルにbytea型で保存する。</t>
@@ -473,6 +439,45 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルをディレクトリに保持する場合の管理方式</t>
+    <rPh sb="12" eb="14">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルをDBに保持する場合の管理方式</t>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -922,6 +927,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -978,60 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1400,43 +1405,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
+      <c r="R1" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="82"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1445,43 +1450,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="94"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1490,39 +1495,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="97"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1624,7 +1629,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1700,7 +1705,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1739,7 +1744,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -1748,7 +1753,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -1781,23 +1786,23 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="E14" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -1824,13 +1829,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1861,23 +1866,23 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="E16" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="41" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="54"/>
       <c r="P16" s="47" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -1904,15 +1909,15 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
@@ -1943,13 +1948,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -1980,15 +1985,15 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="E19" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -2019,13 +2024,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -2056,13 +2061,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2093,15 +2098,15 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
+      <c r="E22" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2132,13 +2137,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -2285,11 +2290,12 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
-        <v>27</v>
+      <c r="E27" s="22" t="str">
+        <f>$D$26&amp;"1."</f>
+        <v>7.10.2.1.</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2327,10 +2333,10 @@
       <c r="C28" s="21"/>
       <c r="D28" s="28"/>
       <c r="E28" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -2369,7 +2375,7 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -2408,7 +2414,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -2447,7 +2453,7 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2486,7 +2492,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -2562,7 +2568,7 @@
       <c r="D34" s="17"/>
       <c r="E34" s="21"/>
       <c r="F34" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -2601,7 +2607,7 @@
       <c r="D35" s="17"/>
       <c r="E35" s="21"/>
       <c r="F35" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -2640,20 +2646,20 @@
       <c r="D36" s="17"/>
       <c r="E36" s="21"/>
       <c r="F36" s="30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="32"/>
       <c r="O36" s="31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P36" s="31"/>
       <c r="Q36" s="31"/>
@@ -2661,7 +2667,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
       <c r="U36" s="31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V36" s="31"/>
       <c r="W36" s="31"/>
@@ -2685,20 +2691,20 @@
       <c r="D37" s="17"/>
       <c r="E37" s="21"/>
       <c r="F37" s="33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="35"/>
       <c r="O37" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
@@ -2706,7 +2712,7 @@
       <c r="S37" s="17"/>
       <c r="T37" s="35"/>
       <c r="U37" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -2767,20 +2773,20 @@
       <c r="D39" s="17"/>
       <c r="E39" s="21"/>
       <c r="F39" s="33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="35"/>
       <c r="O39" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -2788,7 +2794,7 @@
       <c r="S39" s="17"/>
       <c r="T39" s="35"/>
       <c r="U39" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
@@ -2849,20 +2855,20 @@
       <c r="D41" s="17"/>
       <c r="E41" s="21"/>
       <c r="F41" s="33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="34" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="35"/>
       <c r="O41" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
@@ -2870,7 +2876,7 @@
       <c r="S41" s="17"/>
       <c r="T41" s="35"/>
       <c r="U41" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
@@ -2910,7 +2916,7 @@
       <c r="T42" s="35"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
@@ -2949,7 +2955,7 @@
       <c r="T43" s="35"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
@@ -3009,7 +3015,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3084,10 +3090,10 @@
       <c r="C47" s="21"/>
       <c r="D47" s="28"/>
       <c r="E47" s="22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -3126,7 +3132,7 @@
       <c r="D48" s="28"/>
       <c r="E48" s="22"/>
       <c r="F48" s="39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -3165,7 +3171,7 @@
       <c r="D49" s="28"/>
       <c r="E49" s="17"/>
       <c r="F49" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -3204,7 +3210,7 @@
       <c r="D50" s="28"/>
       <c r="E50" s="22"/>
       <c r="F50" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -3283,7 +3289,7 @@
         <v>7.10.2.2.</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -3321,10 +3327,10 @@
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -3363,7 +3369,7 @@
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
       <c r="F54" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -3402,7 +3408,7 @@
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -3441,7 +3447,7 @@
       <c r="D56" s="22"/>
       <c r="E56" s="40"/>
       <c r="F56" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -3519,7 +3525,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -4088,11 +4094,6 @@
     <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4103,6 +4104,11 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43638DC-4509-41F2-81E3-1BFE197A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F458394-CA9E-488C-887F-67840BD831D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="7.10.ファイル管理" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.10.ファイル管理'!$A$1:$AI$62</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.10.ファイル管理'!$A$1:$AI$65</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$73</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$73</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$73</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -478,6 +478,32 @@
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/file_path_management.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの管理機能については、下記解説書の「7.5.ファイルパス管理」を参照。</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -489,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +584,15 @@
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -729,7 +764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,8 +774,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,6 +965,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -981,65 +1076,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1389,7 +1431,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI501"/>
+  <dimension ref="A1:AI504"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1405,43 +1447,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="98"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="80" t="s">
+      <c r="R1" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="82"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="64"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="70"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1450,43 +1492,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="91"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="92" t="s">
+      <c r="R2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="94"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="70"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1495,39 +1537,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="97"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="79"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="70"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1786,15 +1828,15 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="41" t="s">
         <v>24</v>
       </c>
@@ -1829,13 +1871,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1866,15 +1908,15 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="41" t="s">
         <v>61</v>
       </c>
@@ -1909,13 +1951,13 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
       <c r="L17" s="61" t="s">
         <v>62</v>
       </c>
@@ -1948,13 +1990,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -1985,15 +2027,15 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -2024,13 +2066,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -2061,13 +2103,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2098,15 +2140,15 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2137,13 +2179,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -3479,7 +3521,7 @@
       <c r="AH56" s="17"/>
       <c r="AI56" s="21"/>
     </row>
-    <row r="57" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3516,16 +3558,14 @@
       <c r="AH57" s="17"/>
       <c r="AI57" s="21"/>
     </row>
-    <row r="58" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="22" t="s">
-        <v>9</v>
-      </c>
+      <c r="E58" s="40"/>
       <c r="F58" s="21" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -3557,14 +3597,14 @@
       <c r="AH58" s="17"/>
       <c r="AI58" s="21"/>
     </row>
-    <row r="59" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="21" t="s">
-        <v>14</v>
+      <c r="E59" s="40"/>
+      <c r="F59" s="99" t="s">
+        <v>70</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -3597,80 +3637,194 @@
       <c r="AI59" s="21"/>
     </row>
     <row r="60" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="19"/>
-      <c r="Y60" s="16"/>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="16"/>
-      <c r="AD60" s="16"/>
-      <c r="AE60" s="16"/>
-      <c r="AF60" s="16"/>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="16"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="21"/>
     </row>
     <row r="61" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E61" s="16"/>
-      <c r="F61" s="18"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
-      <c r="AD61" s="16"/>
-      <c r="AE61" s="16"/>
-      <c r="AF61" s="16"/>
-      <c r="AG61" s="16"/>
-      <c r="AH61" s="16"/>
-    </row>
-    <row r="62" spans="1:35" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E62" s="14"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
-      <c r="AD62" s="16"/>
-      <c r="AE62" s="16"/>
-      <c r="AF62" s="16"/>
-      <c r="AG62" s="16"/>
-      <c r="AH62" s="16"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="17"/>
+      <c r="AH61" s="17"/>
+      <c r="AI61" s="21"/>
+    </row>
+    <row r="62" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="17"/>
+      <c r="AH62" s="17"/>
+      <c r="AI62" s="21"/>
     </row>
     <row r="63" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E63" s="14"/>
+      <c r="F63" s="19"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="16"/>
+    </row>
+    <row r="64" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="16"/>
+      <c r="F64" s="18"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+    </row>
+    <row r="65" spans="4:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="14"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+    </row>
+    <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="81" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="83" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4092,8 +4246,16 @@
     <row r="499" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="500" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4104,11 +4266,6 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4116,8 +4273,11 @@
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F59" r:id="rId1" xr:uid="{BAE7634D-F0B8-4D99-B09A-96C9C1587F86}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="25" max="34" man="1"/>
   </rowBreaks>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F458394-CA9E-488C-887F-67840BD831D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59428933-D053-4E62-8B4C-0B43A0B85A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>削除は論理削除を行う仕様である。運用時には、別途、論理削除状態のレコードのクリンナップについて検討する必要がある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SFTP経由で画像ファイル連携処理</t>
     <rPh sb="7" eb="9">
       <t>ガゾウ</t>
@@ -505,6 +501,10 @@
     <rPh sb="40" eb="42">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除は論理削除を行う仕様である。運用時には、別途、論理削除状態のレコードのデータクリーニングについて検討する必要がある。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -965,6 +965,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,63 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1447,43 +1447,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
+      <c r="R1" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1492,43 +1492,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="92"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="95"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1537,39 +1537,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="98"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="89"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1671,7 +1671,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1747,7 +1747,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1828,15 +1828,15 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="E14" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="41" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -1871,13 +1871,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1908,23 +1908,23 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="E16" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="54"/>
       <c r="P16" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -1951,15 +1951,15 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
@@ -1990,13 +1990,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -2027,15 +2027,15 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="E19" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -2066,13 +2066,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -2103,13 +2103,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2140,15 +2140,15 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
+      <c r="E22" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2179,13 +2179,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -2337,7 +2337,7 @@
         <v>7.10.2.1.</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2378,7 +2378,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -3057,7 +3057,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3331,7 +3331,7 @@
         <v>7.10.2.2.</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -3372,7 +3372,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -3565,7 +3565,7 @@
       <c r="D58" s="22"/>
       <c r="E58" s="40"/>
       <c r="F58" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -3603,8 +3603,8 @@
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
       <c r="E59" s="40"/>
-      <c r="F59" s="99" t="s">
-        <v>70</v>
+      <c r="F59" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -4251,11 +4251,6 @@
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4266,9 +4261,14 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:O25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59428933-D053-4E62-8B4C-0B43A0B85A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530AC67-73C5-4BE5-9D97-2872CC13A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>業務ファイルをファイル管理テーブルにbytea型で保存する。</t>
   </si>
   <si>
-    <t>また、同一ユーザ、または複数のユーザが同名ファイルをアップロード等できるようにするため、業務ファイルをファイル名でなく、IDで管理する。</t>
-  </si>
-  <si>
     <t>（このIDをファイル管理IDと呼ぶ）</t>
   </si>
   <si>
@@ -505,6 +502,13 @@
   </si>
   <si>
     <t>削除は論理削除を行う仕様である。運用時には、別途、論理削除状態のレコードのデータクリーニングについて検討する必要がある。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、同名ファイルを管理できるようにするため、業務ファイルをファイル名でなくIDで管理する。</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -968,6 +972,63 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1021,63 +1082,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1447,43 +1451,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="99"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="R1" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="65"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="89"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="71"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1492,43 +1496,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="95"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="77"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="71"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1537,39 +1541,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="98"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="80"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="89"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="71"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1671,7 +1675,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1747,7 +1751,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1828,15 +1832,15 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="E14" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
       <c r="L14" s="41" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1848,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -1871,13 +1875,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1908,23 +1912,23 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65"/>
+      <c r="E16" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
       <c r="L16" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="54"/>
       <c r="P16" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -1951,15 +1955,15 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
       <c r="L17" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
@@ -1990,13 +1994,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="71"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -2027,15 +2031,15 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
+      <c r="E19" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -2066,13 +2070,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="87"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -2103,13 +2107,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2140,15 +2144,15 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
+      <c r="E22" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2179,13 +2183,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -2337,7 +2341,7 @@
         <v>7.10.2.1.</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2378,7 +2382,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -2456,7 +2460,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -2495,7 +2499,7 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2534,7 +2538,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -2610,7 +2614,7 @@
       <c r="D34" s="17"/>
       <c r="E34" s="21"/>
       <c r="F34" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -2649,7 +2653,7 @@
       <c r="D35" s="17"/>
       <c r="E35" s="21"/>
       <c r="F35" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -2688,20 +2692,20 @@
       <c r="D36" s="17"/>
       <c r="E36" s="21"/>
       <c r="F36" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="32"/>
       <c r="O36" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P36" s="31"/>
       <c r="Q36" s="31"/>
@@ -2709,7 +2713,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
       <c r="U36" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V36" s="31"/>
       <c r="W36" s="31"/>
@@ -2733,20 +2737,20 @@
       <c r="D37" s="17"/>
       <c r="E37" s="21"/>
       <c r="F37" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="35"/>
       <c r="O37" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
@@ -2754,7 +2758,7 @@
       <c r="S37" s="17"/>
       <c r="T37" s="35"/>
       <c r="U37" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -2815,20 +2819,20 @@
       <c r="D39" s="17"/>
       <c r="E39" s="21"/>
       <c r="F39" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="35"/>
       <c r="O39" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -2836,7 +2840,7 @@
       <c r="S39" s="17"/>
       <c r="T39" s="35"/>
       <c r="U39" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
@@ -2897,20 +2901,20 @@
       <c r="D41" s="17"/>
       <c r="E41" s="21"/>
       <c r="F41" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="35"/>
       <c r="O41" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
@@ -2918,7 +2922,7 @@
       <c r="S41" s="17"/>
       <c r="T41" s="35"/>
       <c r="U41" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
@@ -2958,7 +2962,7 @@
       <c r="T42" s="35"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
@@ -2997,7 +3001,7 @@
       <c r="T43" s="35"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
@@ -3057,7 +3061,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3132,10 +3136,10 @@
       <c r="C47" s="21"/>
       <c r="D47" s="28"/>
       <c r="E47" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -3174,7 +3178,7 @@
       <c r="D48" s="28"/>
       <c r="E48" s="22"/>
       <c r="F48" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -3213,7 +3217,7 @@
       <c r="D49" s="28"/>
       <c r="E49" s="17"/>
       <c r="F49" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -3252,7 +3256,7 @@
       <c r="D50" s="28"/>
       <c r="E50" s="22"/>
       <c r="F50" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -3331,7 +3335,7 @@
         <v>7.10.2.2.</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -3372,7 +3376,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -3565,7 +3569,7 @@
       <c r="D58" s="22"/>
       <c r="E58" s="40"/>
       <c r="F58" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -3604,7 +3608,7 @@
       <c r="D59" s="22"/>
       <c r="E59" s="40"/>
       <c r="F59" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -4251,6 +4255,11 @@
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4261,11 +4270,6 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530AC67-73C5-4BE5-9D97-2872CC13A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AFC1ED-ECAE-4014-B6D4-9169090FC84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,28 +479,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchの管理機能については、下記解説書の「7.5.ファイルパス管理」を参照。</t>
-    <rPh sb="9" eb="11">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>カイセツショ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>削除は論理削除を行う仕様である。運用時には、別途、論理削除状態のレコードのデータクリーニングについて検討する必要がある。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -508,6 +486,25 @@
     <t>また、同名ファイルを管理できるようにするため、業務ファイルをファイル名でなくIDで管理する。</t>
     <rPh sb="10" eb="12">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの機能については、下記解説書の「7.5.ファイルパス管理」を参照。</t>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -972,6 +969,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1028,60 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1451,43 +1448,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="99"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="65"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="71"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1496,43 +1493,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="92"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="77"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="95"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="71"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1541,39 +1538,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="80"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="98"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="71"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="89"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1832,15 +1829,15 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="41" t="s">
         <v>24</v>
       </c>
@@ -1875,13 +1872,13 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="87"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1912,15 +1909,15 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="41" t="s">
         <v>59</v>
       </c>
@@ -1955,13 +1952,13 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="61" t="s">
         <v>60</v>
       </c>
@@ -1994,13 +1991,13 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -2031,15 +2028,15 @@
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -2070,13 +2067,13 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="87"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -2107,13 +2104,13 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2144,15 +2141,15 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2183,13 +2180,13 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -2460,7 +2457,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -3061,7 +3058,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3569,7 +3566,7 @@
       <c r="D58" s="22"/>
       <c r="E58" s="40"/>
       <c r="F58" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -4255,11 +4252,6 @@
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4270,6 +4262,11 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.10ファイル管理.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AFC1ED-ECAE-4014-B6D4-9169090FC84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15240" windowHeight="8070"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.10.ファイル管理" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.10.ファイル管理'!$A$1:$AI$62</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.10.ファイル管理'!$A$1:$AI$65</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$73</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$73</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$73</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.10.ファイル管理'!$A$1:$AI$73</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -118,38 +130,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ファイルをディレクトリに保持</t>
-    <rPh sb="12" eb="14">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務アプリケーションにて利用するファイルを登録、取得、削除など管理機能を行う。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -167,16 +147,6 @@
   </si>
   <si>
     <t>Nablarchはシステムで使用するファイルの入出力先のディレクトリや拡張子を管理するための機能を提供する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイルをディレクトリに保持詳細</t>
-    <rPh sb="12" eb="14">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウサイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -190,22 +160,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>実現簡潔、ファイル削除、退避など処理も簡単。</t>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイヒ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンタン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -217,30 +171,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>7.11.2.1.</t>
-  </si>
-  <si>
-    <t>ファイルをDBに保持</t>
-    <rPh sb="8" eb="10">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1)</t>
   </si>
   <si>
-    <t>ファイルをDBに保持詳細</t>
-    <rPh sb="10" eb="12">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務ファイルをファイル管理テーブルにbytea型で保存する。</t>
-  </si>
-  <si>
-    <t>また、同一ユーザ、または複数のユーザが同名ファイルをアップロード等できるようにするため、業務ファイルをファイル名でなく、IDで管理する。</t>
   </si>
   <si>
     <t>（このIDをファイル管理IDと呼ぶ）</t>
@@ -362,10 +296,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>削除は論理削除を行う仕様である。運用時には、別途、論理削除状態のレコードのクリンナップについて検討する必要がある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SFTP経由で画像ファイル連携処理</t>
     <rPh sb="7" eb="9">
       <t>ガゾウ</t>
@@ -409,29 +339,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画像ファイルの取込、表示が頻繁的に発生するため、操作上の利便性が高い。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムの管理方式は以下の通り。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -449,6 +356,155 @@
     <t>に保持</t>
     <rPh sb="1" eb="3">
       <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務アプリケーションにて利用するファイルの管理機能(登録、取得、削除)について解説する。</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像ファイルの取込、表示が頻繁に発生するため、操作上の利便性が高い。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル削除、退避などの処理の実現が容易であるため。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは以下の処理と管理方式の対応を採用する。採用理由は表に記載の通り。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルをディレクトリに保持する場合の管理方式</t>
+    <rPh sb="12" eb="14">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルをDBに保持する場合の管理方式</t>
+    <rPh sb="8" eb="10">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/file_path_management.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除は論理削除を行う仕様である。運用時には、別途、論理削除状態のレコードのデータクリーニングについて検討する必要がある。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、同名ファイルを管理できるようにするため、業務ファイルをファイル名でなくIDで管理する。</t>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの機能については、下記解説書の「7.5.ファイルパス管理」を参照。</t>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -456,11 +512,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +585,15 @@
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -700,7 +765,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,8 +775,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +966,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -955,67 +1080,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1029,12 +1101,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1076,7 +1151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1109,9 +1184,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1144,6 +1236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1319,152 +1428,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI501"/>
+  <dimension ref="A1:AI504"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="3.625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.25" customHeight="1">
+    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="64"/>
+      <c r="R1" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
-    </row>
-    <row r="2" spans="1:35" ht="14.25" customHeight="1">
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
+    </row>
+    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="92"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="95"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
-    </row>
-    <row r="3" spans="1:35" ht="14.25" customHeight="1">
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+    </row>
+    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="79"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="98"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70"/>
-    </row>
-    <row r="4" spans="1:35" ht="11.25" customHeight="1"/>
-    <row r="5" spans="1:35" ht="11.25" customHeight="1">
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="89"/>
+    </row>
+    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1472,8 +1581,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="11.25" customHeight="1"/>
-    <row r="7" spans="1:35" ht="11.25" customHeight="1">
+    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="14" t="str">
         <f>$B$5&amp;"10."</f>
         <v>7.10.</v>
@@ -1482,7 +1591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1">
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1515,7 +1624,7 @@
       <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
     </row>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1">
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1557,13 +1666,13 @@
       <c r="AH9" s="21"/>
       <c r="AI9" s="21"/>
     </row>
-    <row r="10" spans="1:35" ht="11.25">
+    <row r="10" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -1596,7 +1705,7 @@
       <c r="AH10" s="21"/>
       <c r="AI10" s="21"/>
     </row>
-    <row r="11" spans="1:35" ht="11.25">
+    <row r="11" spans="1:35" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1633,13 +1742,13 @@
       <c r="AH11" s="21"/>
       <c r="AI11" s="21"/>
     </row>
-    <row r="12" spans="1:35" ht="11.25" customHeight="1">
+    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -1672,13 +1781,13 @@
       <c r="AH12" s="21"/>
       <c r="AI12" s="21"/>
     </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1">
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -1687,7 +1796,7 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
@@ -1715,28 +1824,28 @@
       <c r="AH13" s="25"/>
       <c r="AI13" s="21"/>
     </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1">
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="E14" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
@@ -1758,18 +1867,18 @@
       <c r="AH14" s="43"/>
       <c r="AI14" s="21"/>
     </row>
-    <row r="15" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="15" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
       <c r="N15" s="45"/>
@@ -1795,28 +1904,28 @@
       <c r="AH15" s="46"/>
       <c r="AI15" s="21"/>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="E16" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="41" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="54"/>
       <c r="P16" s="47" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
@@ -1838,20 +1947,20 @@
       <c r="AH16" s="48"/>
       <c r="AI16" s="21"/>
     </row>
-    <row r="17" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="17" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="61" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
@@ -1877,18 +1986,18 @@
       <c r="AH17" s="50"/>
       <c r="AI17" s="21"/>
     </row>
-    <row r="18" spans="1:35" ht="11.25" customHeight="1">
+    <row r="18" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
       <c r="N18" s="56"/>
@@ -1914,20 +2023,20 @@
       <c r="AH18" s="50"/>
       <c r="AI18" s="21"/>
     </row>
-    <row r="19" spans="1:35" ht="11.25" customHeight="1">
+    <row r="19" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="E19" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
       <c r="N19" s="56"/>
@@ -1953,18 +2062,18 @@
       <c r="AH19" s="50"/>
       <c r="AI19" s="21"/>
     </row>
-    <row r="20" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="20" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -1990,18 +2099,18 @@
       <c r="AH20" s="50"/>
       <c r="AI20" s="21"/>
     </row>
-    <row r="21" spans="1:35" ht="11.25" customHeight="1">
+    <row r="21" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
@@ -2027,20 +2136,20 @@
       <c r="AH21" s="50"/>
       <c r="AI21" s="21"/>
     </row>
-    <row r="22" spans="1:35" ht="11.25" customHeight="1">
+    <row r="22" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
+      <c r="E22" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
       <c r="N22" s="56"/>
@@ -2066,18 +2175,18 @@
       <c r="AH22" s="50"/>
       <c r="AI22" s="21"/>
     </row>
-    <row r="23" spans="1:35" ht="11.25" customHeight="1">
+    <row r="23" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -2103,7 +2212,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="21"/>
     </row>
-    <row r="24" spans="1:35" ht="11.25" customHeight="1">
+    <row r="24" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -2140,7 +2249,7 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="21"/>
     </row>
-    <row r="25" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="25" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2177,7 +2286,7 @@
       <c r="AH25" s="21"/>
       <c r="AI25" s="21"/>
     </row>
-    <row r="26" spans="1:35" ht="11.25" customHeight="1">
+    <row r="26" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -2219,16 +2328,17 @@
       <c r="AH26" s="21"/>
       <c r="AI26" s="21"/>
     </row>
-    <row r="27" spans="1:35" ht="11.25" customHeight="1">
+    <row r="27" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
-        <v>29</v>
+      <c r="E27" s="22" t="str">
+        <f>$D$26&amp;"1."</f>
+        <v>7.10.2.1.</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -2260,16 +2370,16 @@
       <c r="AH27" s="21"/>
       <c r="AI27" s="21"/>
     </row>
-    <row r="28" spans="1:35" ht="11.25" customHeight="1">
+    <row r="28" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="28"/>
       <c r="E28" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -2301,14 +2411,14 @@
       <c r="AH28" s="21"/>
       <c r="AI28" s="21"/>
     </row>
-    <row r="29" spans="1:35" ht="11.25" customHeight="1">
+    <row r="29" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -2340,14 +2450,14 @@
       <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
     </row>
-    <row r="30" spans="1:35" ht="11.25" customHeight="1">
+    <row r="30" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -2379,14 +2489,14 @@
       <c r="AH30" s="21"/>
       <c r="AI30" s="21"/>
     </row>
-    <row r="31" spans="1:35" ht="11.25" customHeight="1">
+    <row r="31" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2418,14 +2528,14 @@
       <c r="AH31" s="21"/>
       <c r="AI31" s="21"/>
     </row>
-    <row r="32" spans="1:35" ht="11.25" customHeight="1">
+    <row r="32" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
@@ -2457,7 +2567,7 @@
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
     </row>
-    <row r="33" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="33" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2494,14 +2604,14 @@
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
     </row>
-    <row r="34" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="34" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="17"/>
       <c r="E34" s="21"/>
       <c r="F34" s="17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -2533,14 +2643,14 @@
       <c r="AH34" s="17"/>
       <c r="AI34" s="21"/>
     </row>
-    <row r="35" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="35" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="17"/>
       <c r="E35" s="21"/>
       <c r="F35" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -2572,27 +2682,27 @@
       <c r="AH35" s="17"/>
       <c r="AI35" s="21"/>
     </row>
-    <row r="36" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="36" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17"/>
       <c r="E36" s="21"/>
       <c r="F36" s="30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="32"/>
       <c r="O36" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P36" s="31"/>
       <c r="Q36" s="31"/>
@@ -2600,7 +2710,7 @@
       <c r="S36" s="31"/>
       <c r="T36" s="32"/>
       <c r="U36" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="V36" s="31"/>
       <c r="W36" s="31"/>
@@ -2617,27 +2727,27 @@
       <c r="AH36" s="32"/>
       <c r="AI36" s="21"/>
     </row>
-    <row r="37" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="37" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="17"/>
       <c r="E37" s="21"/>
       <c r="F37" s="33" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="34" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="35"/>
       <c r="O37" s="17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
@@ -2645,7 +2755,7 @@
       <c r="S37" s="17"/>
       <c r="T37" s="35"/>
       <c r="U37" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
@@ -2662,7 +2772,7 @@
       <c r="AH37" s="35"/>
       <c r="AI37" s="21"/>
     </row>
-    <row r="38" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="38" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -2699,27 +2809,27 @@
       <c r="AH38" s="38"/>
       <c r="AI38" s="21"/>
     </row>
-    <row r="39" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="39" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="17"/>
       <c r="E39" s="21"/>
       <c r="F39" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="35"/>
       <c r="O39" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -2727,7 +2837,7 @@
       <c r="S39" s="17"/>
       <c r="T39" s="35"/>
       <c r="U39" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
@@ -2744,7 +2854,7 @@
       <c r="AH39" s="35"/>
       <c r="AI39" s="21"/>
     </row>
-    <row r="40" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="40" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2781,27 +2891,27 @@
       <c r="AH40" s="38"/>
       <c r="AI40" s="21"/>
     </row>
-    <row r="41" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="41" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="17"/>
       <c r="E41" s="21"/>
       <c r="F41" s="33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="35"/>
       <c r="O41" s="17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
@@ -2809,7 +2919,7 @@
       <c r="S41" s="17"/>
       <c r="T41" s="35"/>
       <c r="U41" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
@@ -2826,7 +2936,7 @@
       <c r="AH41" s="35"/>
       <c r="AI41" s="21"/>
     </row>
-    <row r="42" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="42" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2849,7 +2959,7 @@
       <c r="T42" s="35"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
@@ -2865,7 +2975,7 @@
       <c r="AH42" s="35"/>
       <c r="AI42" s="21"/>
     </row>
-    <row r="43" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="43" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2888,7 +2998,7 @@
       <c r="T43" s="35"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
@@ -2904,7 +3014,7 @@
       <c r="AH43" s="35"/>
       <c r="AI43" s="21"/>
     </row>
-    <row r="44" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="44" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2941,14 +3051,14 @@
       <c r="AH44" s="38"/>
       <c r="AI44" s="21"/>
     </row>
-    <row r="45" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="45" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -2980,7 +3090,7 @@
       <c r="AH45" s="17"/>
       <c r="AI45" s="21"/>
     </row>
-    <row r="46" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1">
+    <row r="46" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -3017,16 +3127,16 @@
       <c r="AH46" s="17"/>
       <c r="AI46" s="21"/>
     </row>
-    <row r="47" spans="1:35" ht="11.25" customHeight="1">
+    <row r="47" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="28"/>
       <c r="E47" s="22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -3058,14 +3168,14 @@
       <c r="AH47" s="21"/>
       <c r="AI47" s="21"/>
     </row>
-    <row r="48" spans="1:35" ht="11.25" customHeight="1">
+    <row r="48" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="28"/>
       <c r="E48" s="22"/>
       <c r="F48" s="39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -3097,14 +3207,14 @@
       <c r="AH48" s="21"/>
       <c r="AI48" s="21"/>
     </row>
-    <row r="49" spans="1:35" ht="11.25" customHeight="1">
+    <row r="49" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="D49" s="28"/>
       <c r="E49" s="17"/>
       <c r="F49" s="39" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -3136,14 +3246,14 @@
       <c r="AH49" s="21"/>
       <c r="AI49" s="21"/>
     </row>
-    <row r="50" spans="1:35" ht="11.25" customHeight="1">
+    <row r="50" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
       <c r="D50" s="28"/>
       <c r="E50" s="22"/>
       <c r="F50" s="21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -3175,7 +3285,7 @@
       <c r="AH50" s="21"/>
       <c r="AI50" s="21"/>
     </row>
-    <row r="51" spans="1:35" ht="11.25" customHeight="1">
+    <row r="51" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -3212,7 +3322,7 @@
       <c r="AH51" s="21"/>
       <c r="AI51" s="21"/>
     </row>
-    <row r="52" spans="1:35" ht="11.25" customHeight="1">
+    <row r="52" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -3222,7 +3332,7 @@
         <v>7.10.2.2.</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -3254,16 +3364,16 @@
       <c r="AH52" s="21"/>
       <c r="AI52" s="21"/>
     </row>
-    <row r="53" spans="1:35" ht="11.25" customHeight="1">
+    <row r="53" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -3295,14 +3405,14 @@
       <c r="AH53" s="17"/>
       <c r="AI53" s="21"/>
     </row>
-    <row r="54" spans="1:35" ht="11.25" customHeight="1">
+    <row r="54" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
       <c r="F54" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -3334,14 +3444,14 @@
       <c r="AH54" s="17"/>
       <c r="AI54" s="21"/>
     </row>
-    <row r="55" spans="1:35" ht="11.25" customHeight="1">
+    <row r="55" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -3373,14 +3483,14 @@
       <c r="AH55" s="17"/>
       <c r="AI55" s="21"/>
     </row>
-    <row r="56" spans="1:35" ht="11.25" customHeight="1">
+    <row r="56" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
       <c r="E56" s="40"/>
       <c r="F56" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -3412,7 +3522,7 @@
       <c r="AH56" s="17"/>
       <c r="AI56" s="21"/>
     </row>
-    <row r="57" spans="1:35" ht="11.25" customHeight="1">
+    <row r="57" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -3449,16 +3559,14 @@
       <c r="AH57" s="17"/>
       <c r="AI57" s="21"/>
     </row>
-    <row r="58" spans="1:35" ht="11.25" customHeight="1">
+    <row r="58" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="22" t="s">
-        <v>9</v>
-      </c>
+      <c r="E58" s="40"/>
       <c r="F58" s="21" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -3490,14 +3598,14 @@
       <c r="AH58" s="17"/>
       <c r="AI58" s="21"/>
     </row>
-    <row r="59" spans="1:35" ht="11.25" customHeight="1">
+    <row r="59" spans="1:35" s="20" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="21" t="s">
-        <v>14</v>
+      <c r="E59" s="40"/>
+      <c r="F59" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -3529,509 +3637,621 @@
       <c r="AH59" s="17"/>
       <c r="AI59" s="21"/>
     </row>
-    <row r="60" spans="1:35" ht="11.25" customHeight="1">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="19"/>
-      <c r="Y60" s="16"/>
-      <c r="Z60" s="16"/>
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="16"/>
-      <c r="AD60" s="16"/>
-      <c r="AE60" s="16"/>
-      <c r="AF60" s="16"/>
-      <c r="AG60" s="16"/>
-      <c r="AH60" s="16"/>
-    </row>
-    <row r="61" spans="1:35" ht="11.25" customHeight="1">
-      <c r="E61" s="16"/>
-      <c r="F61" s="18"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="16"/>
-      <c r="Z61" s="16"/>
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="16"/>
-      <c r="AC61" s="16"/>
-      <c r="AD61" s="16"/>
-      <c r="AE61" s="16"/>
-      <c r="AF61" s="16"/>
-      <c r="AG61" s="16"/>
-      <c r="AH61" s="16"/>
-    </row>
-    <row r="62" spans="1:35" ht="10.5" customHeight="1">
-      <c r="E62" s="14"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="16"/>
-      <c r="AB62" s="16"/>
-      <c r="AC62" s="16"/>
-      <c r="AD62" s="16"/>
-      <c r="AE62" s="16"/>
-      <c r="AF62" s="16"/>
-      <c r="AG62" s="16"/>
-      <c r="AH62" s="16"/>
-    </row>
-    <row r="63" spans="1:35" ht="11.25" customHeight="1">
+    <row r="60" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="21"/>
+    </row>
+    <row r="61" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="17"/>
+      <c r="AH61" s="17"/>
+      <c r="AI61" s="21"/>
+    </row>
+    <row r="62" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="17"/>
+      <c r="AH62" s="17"/>
+      <c r="AI62" s="21"/>
+    </row>
+    <row r="63" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="14"/>
-    </row>
-    <row r="64" spans="1:35" ht="11.25" customHeight="1"/>
-    <row r="65" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="66" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="67" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="68" spans="6:6" ht="11.25" customHeight="1">
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="70" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+      <c r="E63" s="14"/>
+      <c r="F63" s="19"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="16"/>
+    </row>
+    <row r="64" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="16"/>
+      <c r="F64" s="18"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+    </row>
+    <row r="65" spans="4:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="14"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+    </row>
+    <row r="66" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="73" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="74" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="75" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="76" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="77" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="78" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="79" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="80" spans="6:6" ht="11.25" customHeight="1"/>
-    <row r="81" ht="11.25" customHeight="1"/>
-    <row r="82" ht="11.25" customHeight="1"/>
-    <row r="83" ht="11.25" customHeight="1"/>
-    <row r="84" ht="11.25" customHeight="1"/>
-    <row r="85" ht="11.25" customHeight="1"/>
-    <row r="86" ht="11.25" customHeight="1"/>
-    <row r="87" ht="11.25" customHeight="1"/>
-    <row r="88" ht="11.25" customHeight="1"/>
-    <row r="89" ht="11.25" customHeight="1"/>
-    <row r="90" ht="11.25" customHeight="1"/>
-    <row r="91" ht="11.25" customHeight="1"/>
-    <row r="92" ht="11.25" customHeight="1"/>
-    <row r="93" ht="11.25" customHeight="1"/>
-    <row r="94" ht="11.25" customHeight="1"/>
-    <row r="95" ht="11.25" customHeight="1"/>
-    <row r="96" ht="11.25" customHeight="1"/>
-    <row r="97" ht="11.25" customHeight="1"/>
-    <row r="98" ht="11.25" customHeight="1"/>
-    <row r="99" ht="11.25" customHeight="1"/>
-    <row r="100" ht="11.25" customHeight="1"/>
-    <row r="101" ht="11.25" customHeight="1"/>
-    <row r="102" ht="11.25" customHeight="1"/>
-    <row r="103" ht="11.25" customHeight="1"/>
-    <row r="104" ht="11.25" customHeight="1"/>
-    <row r="105" ht="11.25" customHeight="1"/>
-    <row r="106" ht="11.25" customHeight="1"/>
-    <row r="107" ht="11.25" customHeight="1"/>
-    <row r="108" ht="11.25" customHeight="1"/>
-    <row r="109" ht="11.25" customHeight="1"/>
-    <row r="110" ht="11.25" customHeight="1"/>
-    <row r="111" ht="11.25" customHeight="1"/>
-    <row r="112" ht="11.25" customHeight="1"/>
-    <row r="113" ht="11.25" customHeight="1"/>
-    <row r="114" ht="11.25" customHeight="1"/>
-    <row r="115" ht="11.25" customHeight="1"/>
-    <row r="116" ht="11.25" customHeight="1"/>
-    <row r="117" ht="11.25" customHeight="1"/>
-    <row r="118" ht="11.25" customHeight="1"/>
-    <row r="119" ht="11.25" customHeight="1"/>
-    <row r="120" ht="11.25" customHeight="1"/>
-    <row r="121" ht="11.25" customHeight="1"/>
-    <row r="122" ht="11.25" customHeight="1"/>
-    <row r="123" ht="11.25" customHeight="1"/>
-    <row r="124" ht="11.25" customHeight="1"/>
-    <row r="125" ht="11.25" customHeight="1"/>
-    <row r="126" ht="11.25" customHeight="1"/>
-    <row r="127" ht="11.25" customHeight="1"/>
-    <row r="128" ht="11.25" customHeight="1"/>
-    <row r="129" ht="11.25" customHeight="1"/>
-    <row r="130" ht="11.25" customHeight="1"/>
-    <row r="131" ht="11.25" customHeight="1"/>
-    <row r="132" ht="11.25" customHeight="1"/>
-    <row r="133" ht="11.25" customHeight="1"/>
-    <row r="134" ht="11.25" customHeight="1"/>
-    <row r="135" ht="11.25" customHeight="1"/>
-    <row r="136" ht="11.25" customHeight="1"/>
-    <row r="137" ht="11.25" customHeight="1"/>
-    <row r="138" ht="11.25" customHeight="1"/>
-    <row r="139" ht="11.25" customHeight="1"/>
-    <row r="140" ht="11.25" customHeight="1"/>
-    <row r="141" ht="11.25" customHeight="1"/>
-    <row r="142" ht="11.25" customHeight="1"/>
-    <row r="143" ht="11.25" customHeight="1"/>
-    <row r="144" ht="11.25" customHeight="1"/>
-    <row r="145" ht="11.25" customHeight="1"/>
-    <row r="146" ht="11.25" customHeight="1"/>
-    <row r="147" ht="11.25" customHeight="1"/>
-    <row r="148" ht="11.25" customHeight="1"/>
-    <row r="149" ht="11.25" customHeight="1"/>
-    <row r="150" ht="11.25" customHeight="1"/>
-    <row r="151" ht="11.25" customHeight="1"/>
-    <row r="152" ht="11.25" customHeight="1"/>
-    <row r="153" ht="11.25" customHeight="1"/>
-    <row r="154" ht="11.25" customHeight="1"/>
-    <row r="155" ht="11.25" customHeight="1"/>
-    <row r="156" ht="11.25" customHeight="1"/>
-    <row r="157" ht="11.25" customHeight="1"/>
-    <row r="158" ht="11.25" customHeight="1"/>
-    <row r="159" ht="11.25" customHeight="1"/>
-    <row r="160" ht="11.25" customHeight="1"/>
-    <row r="161" ht="11.25" customHeight="1"/>
-    <row r="162" ht="11.25" customHeight="1"/>
-    <row r="163" ht="11.25" customHeight="1"/>
-    <row r="164" ht="11.25" customHeight="1"/>
-    <row r="165" ht="11.25" customHeight="1"/>
-    <row r="166" ht="11.25" customHeight="1"/>
-    <row r="167" ht="11.25" customHeight="1"/>
-    <row r="168" ht="11.25" customHeight="1"/>
-    <row r="169" ht="11.25" customHeight="1"/>
-    <row r="170" ht="11.25" customHeight="1"/>
-    <row r="171" ht="11.25" customHeight="1"/>
-    <row r="172" ht="11.25" customHeight="1"/>
-    <row r="173" ht="11.25" customHeight="1"/>
-    <row r="174" ht="11.25" customHeight="1"/>
-    <row r="175" ht="11.25" customHeight="1"/>
-    <row r="176" ht="11.25" customHeight="1"/>
-    <row r="177" ht="11.25" customHeight="1"/>
-    <row r="178" ht="11.25" customHeight="1"/>
-    <row r="179" ht="11.25" customHeight="1"/>
-    <row r="180" ht="11.25" customHeight="1"/>
-    <row r="181" ht="11.25" customHeight="1"/>
-    <row r="182" ht="11.25" customHeight="1"/>
-    <row r="183" ht="11.25" customHeight="1"/>
-    <row r="184" ht="11.25" customHeight="1"/>
-    <row r="185" ht="11.25" customHeight="1"/>
-    <row r="186" ht="11.25" customHeight="1"/>
-    <row r="187" ht="11.25" customHeight="1"/>
-    <row r="188" ht="11.25" customHeight="1"/>
-    <row r="189" ht="11.25" customHeight="1"/>
-    <row r="190" ht="11.25" customHeight="1"/>
-    <row r="191" ht="11.25" customHeight="1"/>
-    <row r="192" ht="11.25" customHeight="1"/>
-    <row r="193" ht="11.25" customHeight="1"/>
-    <row r="194" ht="11.25" customHeight="1"/>
-    <row r="195" ht="11.25" customHeight="1"/>
-    <row r="196" ht="11.25" customHeight="1"/>
-    <row r="197" ht="11.25" customHeight="1"/>
-    <row r="198" ht="11.25" customHeight="1"/>
-    <row r="199" ht="11.25" customHeight="1"/>
-    <row r="200" ht="11.25" customHeight="1"/>
-    <row r="201" ht="11.25" customHeight="1"/>
-    <row r="202" ht="11.25" customHeight="1"/>
-    <row r="203" ht="11.25" customHeight="1"/>
-    <row r="204" ht="11.25" customHeight="1"/>
-    <row r="205" ht="11.25" customHeight="1"/>
-    <row r="206" ht="11.25" customHeight="1"/>
-    <row r="207" ht="11.25" customHeight="1"/>
-    <row r="208" ht="11.25" customHeight="1"/>
-    <row r="209" ht="11.25" customHeight="1"/>
-    <row r="210" ht="11.25" customHeight="1"/>
-    <row r="211" ht="11.25" customHeight="1"/>
-    <row r="212" ht="11.25" customHeight="1"/>
-    <row r="213" ht="11.25" customHeight="1"/>
-    <row r="214" ht="11.25" customHeight="1"/>
-    <row r="215" ht="11.25" customHeight="1"/>
-    <row r="216" ht="11.25" customHeight="1"/>
-    <row r="217" ht="11.25" customHeight="1"/>
-    <row r="218" ht="11.25" customHeight="1"/>
-    <row r="219" ht="11.25" customHeight="1"/>
-    <row r="220" ht="11.25" customHeight="1"/>
-    <row r="221" ht="11.25" customHeight="1"/>
-    <row r="222" ht="11.25" customHeight="1"/>
-    <row r="223" ht="11.25" customHeight="1"/>
-    <row r="224" ht="11.25" customHeight="1"/>
-    <row r="225" ht="11.25" customHeight="1"/>
-    <row r="226" ht="11.25" customHeight="1"/>
-    <row r="227" ht="11.25" customHeight="1"/>
-    <row r="228" ht="11.25" customHeight="1"/>
-    <row r="229" ht="11.25" customHeight="1"/>
-    <row r="230" ht="11.25" customHeight="1"/>
-    <row r="231" ht="11.25" customHeight="1"/>
-    <row r="232" ht="11.25" customHeight="1"/>
-    <row r="233" ht="11.25" customHeight="1"/>
-    <row r="234" ht="11.25" customHeight="1"/>
-    <row r="235" ht="11.25" customHeight="1"/>
-    <row r="236" ht="11.25" customHeight="1"/>
-    <row r="237" ht="11.25" customHeight="1"/>
-    <row r="238" ht="11.25" customHeight="1"/>
-    <row r="239" ht="11.25" customHeight="1"/>
-    <row r="240" ht="11.25" customHeight="1"/>
-    <row r="241" ht="11.25" customHeight="1"/>
-    <row r="242" ht="11.25" customHeight="1"/>
-    <row r="243" ht="11.25" customHeight="1"/>
-    <row r="244" ht="11.25" customHeight="1"/>
-    <row r="245" ht="11.25" customHeight="1"/>
-    <row r="246" ht="11.25" customHeight="1"/>
-    <row r="247" ht="11.25" customHeight="1"/>
-    <row r="248" ht="11.25" customHeight="1"/>
-    <row r="249" ht="11.25" customHeight="1"/>
-    <row r="250" ht="11.25" customHeight="1"/>
-    <row r="251" ht="11.25" customHeight="1"/>
-    <row r="252" ht="11.25" customHeight="1"/>
-    <row r="253" ht="11.25" customHeight="1"/>
-    <row r="254" ht="11.25" customHeight="1"/>
-    <row r="255" ht="11.25" customHeight="1"/>
-    <row r="256" ht="11.25" customHeight="1"/>
-    <row r="257" ht="11.25" customHeight="1"/>
-    <row r="258" ht="11.25" customHeight="1"/>
-    <row r="259" ht="11.25" customHeight="1"/>
-    <row r="260" ht="11.25" customHeight="1"/>
-    <row r="261" ht="11.25" customHeight="1"/>
-    <row r="262" ht="11.25" customHeight="1"/>
-    <row r="263" ht="11.25" customHeight="1"/>
-    <row r="264" ht="11.25" customHeight="1"/>
-    <row r="265" ht="11.25" customHeight="1"/>
-    <row r="266" ht="11.25" customHeight="1"/>
-    <row r="267" ht="11.25" customHeight="1"/>
-    <row r="268" ht="11.25" customHeight="1"/>
-    <row r="269" ht="11.25" customHeight="1"/>
-    <row r="270" ht="11.25" customHeight="1"/>
-    <row r="271" ht="11.25" customHeight="1"/>
-    <row r="272" ht="11.25" customHeight="1"/>
-    <row r="273" ht="11.25" customHeight="1"/>
-    <row r="274" ht="11.25" customHeight="1"/>
-    <row r="275" ht="11.25" customHeight="1"/>
-    <row r="276" ht="11.25" customHeight="1"/>
-    <row r="277" ht="11.25" customHeight="1"/>
-    <row r="278" ht="11.25" customHeight="1"/>
-    <row r="279" ht="11.25" customHeight="1"/>
-    <row r="280" ht="11.25" customHeight="1"/>
-    <row r="281" ht="11.25" customHeight="1"/>
-    <row r="282" ht="11.25" customHeight="1"/>
-    <row r="283" ht="11.25" customHeight="1"/>
-    <row r="284" ht="11.25" customHeight="1"/>
-    <row r="285" ht="11.25" customHeight="1"/>
-    <row r="286" ht="11.25" customHeight="1"/>
-    <row r="287" ht="11.25" customHeight="1"/>
-    <row r="288" ht="11.25" customHeight="1"/>
-    <row r="289" ht="11.25" customHeight="1"/>
-    <row r="290" ht="11.25" customHeight="1"/>
-    <row r="291" ht="11.25" customHeight="1"/>
-    <row r="292" ht="11.25" customHeight="1"/>
-    <row r="293" ht="11.25" customHeight="1"/>
-    <row r="294" ht="11.25" customHeight="1"/>
-    <row r="295" ht="11.25" customHeight="1"/>
-    <row r="296" ht="11.25" customHeight="1"/>
-    <row r="297" ht="11.25" customHeight="1"/>
-    <row r="298" ht="11.25" customHeight="1"/>
-    <row r="299" ht="11.25" customHeight="1"/>
-    <row r="300" ht="11.25" customHeight="1"/>
-    <row r="301" ht="11.25" customHeight="1"/>
-    <row r="302" ht="11.25" customHeight="1"/>
-    <row r="303" ht="11.25" customHeight="1"/>
-    <row r="304" ht="11.25" customHeight="1"/>
-    <row r="305" ht="11.25" customHeight="1"/>
-    <row r="306" ht="11.25" customHeight="1"/>
-    <row r="307" ht="11.25" customHeight="1"/>
-    <row r="308" ht="11.25" customHeight="1"/>
-    <row r="309" ht="11.25" customHeight="1"/>
-    <row r="310" ht="11.25" customHeight="1"/>
-    <row r="311" ht="11.25" customHeight="1"/>
-    <row r="312" ht="11.25" customHeight="1"/>
-    <row r="313" ht="11.25" customHeight="1"/>
-    <row r="314" ht="11.25" customHeight="1"/>
-    <row r="315" ht="11.25" customHeight="1"/>
-    <row r="316" ht="11.25" customHeight="1"/>
-    <row r="317" ht="11.25" customHeight="1"/>
-    <row r="318" ht="11.25" customHeight="1"/>
-    <row r="319" ht="11.25" customHeight="1"/>
-    <row r="320" ht="11.25" customHeight="1"/>
-    <row r="321" ht="11.25" customHeight="1"/>
-    <row r="322" ht="11.25" customHeight="1"/>
-    <row r="323" ht="11.25" customHeight="1"/>
-    <row r="324" ht="11.25" customHeight="1"/>
-    <row r="325" ht="11.25" customHeight="1"/>
-    <row r="326" ht="11.25" customHeight="1"/>
-    <row r="327" ht="11.25" customHeight="1"/>
-    <row r="328" ht="11.25" customHeight="1"/>
-    <row r="329" ht="11.25" customHeight="1"/>
-    <row r="330" ht="11.25" customHeight="1"/>
-    <row r="331" ht="11.25" customHeight="1"/>
-    <row r="332" ht="11.25" customHeight="1"/>
-    <row r="333" ht="11.25" customHeight="1"/>
-    <row r="334" ht="11.25" customHeight="1"/>
-    <row r="335" ht="11.25" customHeight="1"/>
-    <row r="336" ht="11.25" customHeight="1"/>
-    <row r="337" ht="11.25" customHeight="1"/>
-    <row r="338" ht="11.25" customHeight="1"/>
-    <row r="339" ht="11.25" customHeight="1"/>
-    <row r="340" ht="11.25" customHeight="1"/>
-    <row r="341" ht="11.25" customHeight="1"/>
-    <row r="342" ht="11.25" customHeight="1"/>
-    <row r="343" ht="11.25" customHeight="1"/>
-    <row r="344" ht="11.25" customHeight="1"/>
-    <row r="345" ht="11.25" customHeight="1"/>
-    <row r="346" ht="11.25" customHeight="1"/>
-    <row r="347" ht="11.25" customHeight="1"/>
-    <row r="348" ht="11.25" customHeight="1"/>
-    <row r="349" ht="11.25" customHeight="1"/>
-    <row r="350" ht="11.25" customHeight="1"/>
-    <row r="351" ht="11.25" customHeight="1"/>
-    <row r="352" ht="11.25" customHeight="1"/>
-    <row r="353" ht="11.25" customHeight="1"/>
-    <row r="354" ht="11.25" customHeight="1"/>
-    <row r="355" ht="11.25" customHeight="1"/>
-    <row r="356" ht="11.25" customHeight="1"/>
-    <row r="357" ht="11.25" customHeight="1"/>
-    <row r="358" ht="11.25" customHeight="1"/>
-    <row r="359" ht="11.25" customHeight="1"/>
-    <row r="360" ht="11.25" customHeight="1"/>
-    <row r="361" ht="11.25" customHeight="1"/>
-    <row r="362" ht="11.25" customHeight="1"/>
-    <row r="363" ht="11.25" customHeight="1"/>
-    <row r="364" ht="11.25" customHeight="1"/>
-    <row r="365" ht="11.25" customHeight="1"/>
-    <row r="366" ht="11.25" customHeight="1"/>
-    <row r="367" ht="11.25" customHeight="1"/>
-    <row r="368" ht="11.25" customHeight="1"/>
-    <row r="369" ht="11.25" customHeight="1"/>
-    <row r="370" ht="11.25" customHeight="1"/>
-    <row r="371" ht="11.25" customHeight="1"/>
-    <row r="372" ht="11.25" customHeight="1"/>
-    <row r="373" ht="11.25" customHeight="1"/>
-    <row r="374" ht="11.25" customHeight="1"/>
-    <row r="375" ht="11.25" customHeight="1"/>
-    <row r="376" ht="11.25" customHeight="1"/>
-    <row r="377" ht="11.25" customHeight="1"/>
-    <row r="378" ht="11.25" customHeight="1"/>
-    <row r="379" ht="11.25" customHeight="1"/>
-    <row r="380" ht="11.25" customHeight="1"/>
-    <row r="381" ht="11.25" customHeight="1"/>
-    <row r="382" ht="11.25" customHeight="1"/>
-    <row r="383" ht="11.25" customHeight="1"/>
-    <row r="384" ht="11.25" customHeight="1"/>
-    <row r="385" ht="11.25" customHeight="1"/>
-    <row r="386" ht="11.25" customHeight="1"/>
-    <row r="387" ht="11.25" customHeight="1"/>
-    <row r="388" ht="11.25" customHeight="1"/>
-    <row r="389" ht="11.25" customHeight="1"/>
-    <row r="390" ht="11.25" customHeight="1"/>
-    <row r="391" ht="11.25" customHeight="1"/>
-    <row r="392" ht="11.25" customHeight="1"/>
-    <row r="393" ht="11.25" customHeight="1"/>
-    <row r="394" ht="11.25" customHeight="1"/>
-    <row r="395" ht="11.25" customHeight="1"/>
-    <row r="396" ht="11.25" customHeight="1"/>
-    <row r="397" ht="11.25" customHeight="1"/>
-    <row r="398" ht="11.25" customHeight="1"/>
-    <row r="399" ht="11.25" customHeight="1"/>
-    <row r="400" ht="11.25" customHeight="1"/>
-    <row r="401" ht="11.25" customHeight="1"/>
-    <row r="402" ht="11.25" customHeight="1"/>
-    <row r="403" ht="11.25" customHeight="1"/>
-    <row r="404" ht="11.25" customHeight="1"/>
-    <row r="405" ht="11.25" customHeight="1"/>
-    <row r="406" ht="11.25" customHeight="1"/>
-    <row r="407" ht="11.25" customHeight="1"/>
-    <row r="408" ht="11.25" customHeight="1"/>
-    <row r="409" ht="11.25" customHeight="1"/>
-    <row r="410" ht="11.25" customHeight="1"/>
-    <row r="411" ht="11.25" customHeight="1"/>
-    <row r="412" ht="11.25" customHeight="1"/>
-    <row r="413" ht="11.25" customHeight="1"/>
-    <row r="414" ht="11.25" customHeight="1"/>
-    <row r="415" ht="11.25" customHeight="1"/>
-    <row r="416" ht="11.25" customHeight="1"/>
-    <row r="417" ht="11.25" customHeight="1"/>
-    <row r="418" ht="11.25" customHeight="1"/>
-    <row r="419" ht="11.25" customHeight="1"/>
-    <row r="420" ht="11.25" customHeight="1"/>
-    <row r="421" ht="11.25" customHeight="1"/>
-    <row r="422" ht="11.25" customHeight="1"/>
-    <row r="423" ht="11.25" customHeight="1"/>
-    <row r="424" ht="11.25" customHeight="1"/>
-    <row r="425" ht="11.25" customHeight="1"/>
-    <row r="426" ht="11.25" customHeight="1"/>
-    <row r="427" ht="11.25" customHeight="1"/>
-    <row r="428" ht="11.25" customHeight="1"/>
-    <row r="429" ht="11.25" customHeight="1"/>
-    <row r="430" ht="11.25" customHeight="1"/>
-    <row r="431" ht="11.25" customHeight="1"/>
-    <row r="432" ht="11.25" customHeight="1"/>
-    <row r="433" ht="11.25" customHeight="1"/>
-    <row r="434" ht="11.25" customHeight="1"/>
-    <row r="435" ht="11.25" customHeight="1"/>
-    <row r="436" ht="11.25" customHeight="1"/>
-    <row r="437" ht="11.25" customHeight="1"/>
-    <row r="438" ht="11.25" customHeight="1"/>
-    <row r="439" ht="11.25" customHeight="1"/>
-    <row r="440" ht="11.25" customHeight="1"/>
-    <row r="441" ht="11.25" customHeight="1"/>
-    <row r="442" ht="11.25" customHeight="1"/>
-    <row r="443" ht="11.25" customHeight="1"/>
-    <row r="444" ht="11.25" customHeight="1"/>
-    <row r="445" ht="11.25" customHeight="1"/>
-    <row r="446" ht="11.25" customHeight="1"/>
-    <row r="447" ht="11.25" customHeight="1"/>
-    <row r="448" ht="11.25" customHeight="1"/>
-    <row r="449" ht="11.25" customHeight="1"/>
-    <row r="450" ht="11.25" customHeight="1"/>
-    <row r="451" ht="11.25" customHeight="1"/>
-    <row r="452" ht="11.25" customHeight="1"/>
-    <row r="453" ht="11.25" customHeight="1"/>
-    <row r="454" ht="11.25" customHeight="1"/>
-    <row r="455" ht="11.25" customHeight="1"/>
-    <row r="456" ht="11.25" customHeight="1"/>
-    <row r="457" ht="11.25" customHeight="1"/>
-    <row r="458" ht="11.25" customHeight="1"/>
-    <row r="459" ht="11.25" customHeight="1"/>
-    <row r="460" ht="11.25" customHeight="1"/>
-    <row r="461" ht="11.25" customHeight="1"/>
-    <row r="462" ht="11.25" customHeight="1"/>
-    <row r="463" ht="11.25" customHeight="1"/>
-    <row r="464" ht="11.25" customHeight="1"/>
-    <row r="465" ht="11.25" customHeight="1"/>
-    <row r="466" ht="11.25" customHeight="1"/>
-    <row r="467" ht="11.25" customHeight="1"/>
-    <row r="468" ht="11.25" customHeight="1"/>
-    <row r="469" ht="11.25" customHeight="1"/>
-    <row r="470" ht="11.25" customHeight="1"/>
-    <row r="471" ht="11.25" customHeight="1"/>
-    <row r="472" ht="11.25" customHeight="1"/>
-    <row r="473" ht="11.25" customHeight="1"/>
-    <row r="474" ht="11.25" customHeight="1"/>
-    <row r="475" ht="11.25" customHeight="1"/>
-    <row r="476" ht="11.25" customHeight="1"/>
-    <row r="477" ht="11.25" customHeight="1"/>
-    <row r="478" ht="11.25" customHeight="1"/>
-    <row r="479" ht="11.25" customHeight="1"/>
-    <row r="480" ht="11.25" customHeight="1"/>
-    <row r="481" ht="11.25" customHeight="1"/>
-    <row r="482" ht="11.25" customHeight="1"/>
-    <row r="483" ht="11.25" customHeight="1"/>
-    <row r="484" ht="11.25" customHeight="1"/>
-    <row r="485" ht="11.25" customHeight="1"/>
-    <row r="486" ht="11.25" customHeight="1"/>
-    <row r="487" ht="11.25" customHeight="1"/>
-    <row r="488" ht="11.25" customHeight="1"/>
-    <row r="489" ht="11.25" customHeight="1"/>
-    <row r="490" ht="11.25" customHeight="1"/>
-    <row r="491" ht="11.25" customHeight="1"/>
-    <row r="492" ht="11.25" customHeight="1"/>
-    <row r="493" ht="11.25" customHeight="1"/>
-    <row r="494" ht="11.25" customHeight="1"/>
-    <row r="495" ht="11.25" customHeight="1"/>
-    <row r="496" ht="11.25" customHeight="1"/>
-    <row r="497" ht="11.25" customHeight="1"/>
-    <row r="498" ht="11.25" customHeight="1"/>
-    <row r="499" ht="11.25" customHeight="1"/>
-    <row r="500" ht="11.25" customHeight="1"/>
-    <row r="501" ht="11.25" customHeight="1"/>
+    <row r="72" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E19:K21"/>
-    <mergeCell ref="E16:K18"/>
-    <mergeCell ref="E22:K23"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E14:K15"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
@@ -4042,15 +4262,23 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="E19:K21"/>
+    <mergeCell ref="E16:K18"/>
+    <mergeCell ref="E22:K23"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="E14:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:O25">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:O25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F59" r:id="rId1" xr:uid="{BAE7634D-F0B8-4D99-B09A-96C9C1587F86}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="25" max="34" man="1"/>
   </rowBreaks>
